--- a/docs/timer/定时器整理.xlsx
+++ b/docs/timer/定时器整理.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\SVN\docs\timer\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13065"/>
+    <workbookView windowWidth="28695" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286">
   <si>
     <t>定时器大类</t>
   </si>
@@ -373,7 +368,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>签约成功后，租客的各期的应收账务会生成，但是对应每期的账单是在每期开始的前</t>
@@ -383,7 +377,6 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>15天</t>
@@ -393,7 +386,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>生成的，此定时器负责生成这些账单</t>
@@ -412,7 +404,8 @@
     <t>定时周期任务</t>
   </si>
   <si>
-    <t>每日00:05:00执行</t>
+    <t>每12小时执行一次
+00:05:00，12:05:00</t>
   </si>
   <si>
     <t>报错原因：错误数据导致，根据报错日志，修复数据，重新执行一次即可</t>
@@ -514,7 +507,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>白天工作时间段，当租客成功付款预定成功后,如果职业房东在</t>
@@ -524,7 +516,6 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一个小时</t>
@@ -534,7 +525,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>内未审核该预订单,
@@ -551,6 +541,9 @@
     <t>{"taskImpl":"com.mogoroom.tasktracker.task.AutoConfirmBookOrderTask"}</t>
   </si>
   <si>
+    <t>3.0.0</t>
+  </si>
+  <si>
     <t>HandDepositNotPaidBookOrderTask</t>
   </si>
   <si>
@@ -564,6 +557,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>com.mogoroom.tasktracker.task.</t>
     </r>
     <r>
@@ -571,7 +570,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>HandDepositNotPaidBookOrderTask</t>
@@ -579,9 +577,6 @@
   </si>
   <si>
     <t>{"taskImpl":"com.mogoroom.tasktracker.task.HandDepositNotPaidBookOrderTask"}</t>
-  </si>
-  <si>
-    <t>3.0.0</t>
   </si>
   <si>
     <t>HandlerefuseBookOrderHandleDeposit</t>
@@ -757,7 +752,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>com.mogoroom.tasktracker.task</t>
@@ -767,7 +761,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>.RoomPriceTask</t>
@@ -782,7 +775,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>每天0</t>
@@ -792,7 +784,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>3:00:00执行</t>
@@ -800,6 +791,9 @@
   </si>
   <si>
     <t>CmsQuartz</t>
+  </si>
+  <si>
+    <t>syncPageviewFromCacheToDB</t>
   </si>
   <si>
     <t>社区文章浏览量数据由缓存同步到数据库</t>
@@ -834,7 +828,6 @@
         <sz val="11"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>API</t>
@@ -844,7 +837,6 @@
         <sz val="11"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -854,7 +846,6 @@
         <sz val="11"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>接口签名 密码 定时修改</t>
@@ -1025,20 +1016,18 @@
   <si>
     <t>{"taskImpl":"com.mogoroom.tasktracker.task.MsgHostAcctDuedateTask"}</t>
   </si>
-  <si>
-    <t>3.0.0</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>syncPageviewFromCacheToDB</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1051,7 +1040,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1059,7 +1047,25 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1067,7 +1073,26 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1075,21 +1100,22 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="major"/>
+      <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1097,63 +1123,150 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="major"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="major"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1162,13 +1275,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1186,18 +1305,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1365,11 +1658,253 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1377,433 +1912,453 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="49" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="49" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="49" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="49" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="49" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="49" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="49" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="49" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="49" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="49" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="49" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="49" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="49" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="49" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="49" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="49" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="49" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="49" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="49" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="49" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="49" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="49" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="49" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -2064,1930 +2619,1931 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:R45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M16" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11" style="3" customWidth="1"/>
-    <col min="2" max="2" width="21.625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="26.875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="4" customWidth="1"/>
-    <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="9" style="4"/>
-    <col min="8" max="8" width="16.125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="10.125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="9" style="4"/>
-    <col min="11" max="11" width="86.75" style="3" customWidth="1"/>
-    <col min="12" max="12" width="32.75" style="3" customWidth="1"/>
-    <col min="13" max="13" width="66" style="3" customWidth="1"/>
-    <col min="14" max="14" width="62.25" style="3" customWidth="1"/>
-    <col min="15" max="15" width="13" style="3" customWidth="1"/>
-    <col min="16" max="16" width="27.5" style="5" customWidth="1"/>
-    <col min="17" max="17" width="44.375" style="3" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="11" style="4" customWidth="1"/>
+    <col min="2" max="2" width="21.625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="36.125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="26.875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="5" customWidth="1"/>
+    <col min="6" max="6" width="9" style="4"/>
+    <col min="7" max="7" width="9" style="5"/>
+    <col min="8" max="8" width="16.125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="9" style="5"/>
+    <col min="11" max="11" width="86.75" style="4" customWidth="1"/>
+    <col min="12" max="12" width="32.75" style="4" customWidth="1"/>
+    <col min="13" max="13" width="66" style="4" customWidth="1"/>
+    <col min="14" max="14" width="62.25" style="4" customWidth="1"/>
+    <col min="15" max="15" width="13" style="4" customWidth="1"/>
+    <col min="16" max="16" width="27.5" style="6" customWidth="1"/>
+    <col min="17" max="17" width="44.375" style="4" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:18">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="K1" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="L1" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="M1" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="26" t="s">
+      <c r="N1" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="26" t="s">
+      <c r="O1" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="27" t="s">
+      <c r="P1" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="49" t="s">
+      <c r="Q1" s="122" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="49" t="s">
+      <c r="R1" s="122" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="61" customFormat="1">
-      <c r="A2" s="124" t="s">
+    <row r="2" s="2" customFormat="1" spans="1:18">
+      <c r="A2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="134" t="s">
+      <c r="B2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="70" t="s">
+      <c r="D2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="71" t="s">
+      <c r="E2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="66"/>
-      <c r="G2" s="71" t="s">
+      <c r="F2" s="10"/>
+      <c r="G2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="66"/>
-      <c r="I2" s="71" t="s">
+      <c r="H2" s="10"/>
+      <c r="I2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="71" t="s">
+      <c r="J2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="73"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
     </row>
-    <row r="3" spans="1:18" s="61" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A3" s="125"/>
-      <c r="B3" s="135"/>
-      <c r="C3" s="66" t="s">
+    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A3" s="13"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="70" t="s">
+      <c r="D3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="71" t="s">
+      <c r="E3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="66"/>
-      <c r="G3" s="71" t="s">
+      <c r="F3" s="10"/>
+      <c r="G3" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="66"/>
-      <c r="I3" s="71" t="s">
+      <c r="H3" s="10"/>
+      <c r="I3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="71" t="s">
+      <c r="J3" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
     </row>
-    <row r="4" spans="1:18" s="61" customFormat="1" ht="27">
-      <c r="A4" s="125"/>
-      <c r="B4" s="130" t="s">
+    <row r="4" s="2" customFormat="1" ht="27" spans="1:18">
+      <c r="A4" s="13"/>
+      <c r="B4" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="66" t="s">
+      <c r="C4" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="66" t="s">
+      <c r="D4" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="71" t="s">
+      <c r="E4" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="66"/>
-      <c r="G4" s="71" t="s">
+      <c r="F4" s="10"/>
+      <c r="G4" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="66"/>
-      <c r="I4" s="74" t="s">
+      <c r="H4" s="10"/>
+      <c r="I4" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="63" t="s">
+      <c r="J4" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66" t="s">
+      <c r="K4" s="10"/>
+      <c r="L4" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="66" t="s">
+      <c r="M4" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="N4" s="75" t="s">
+      <c r="N4" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="O4" s="66" t="s">
+      <c r="O4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="72" t="s">
+      <c r="P4" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="Q4" s="66"/>
-      <c r="R4" s="66"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
     </row>
-    <row r="5" spans="1:18" s="61" customFormat="1" ht="40.5">
-      <c r="A5" s="125"/>
-      <c r="B5" s="130"/>
-      <c r="C5" s="56" t="s">
+    <row r="5" s="2" customFormat="1" ht="40.5" spans="1:18">
+      <c r="A5" s="13"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="56" t="s">
+      <c r="D5" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="76" t="s">
+      <c r="E5" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="56"/>
-      <c r="G5" s="76" t="s">
+      <c r="F5" s="16"/>
+      <c r="G5" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="56"/>
-      <c r="I5" s="77" t="s">
+      <c r="H5" s="16"/>
+      <c r="I5" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="J5" s="53" t="s">
+      <c r="J5" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56" t="s">
+      <c r="K5" s="16"/>
+      <c r="L5" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="M5" s="56" t="s">
+      <c r="M5" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="N5" s="78" t="s">
+      <c r="N5" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="O5" s="52" t="s">
+      <c r="O5" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="P5" s="79" t="s">
+      <c r="P5" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="Q5" s="56" t="s">
+      <c r="Q5" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="R5" s="56" t="s">
+      <c r="R5" s="16" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="27">
-      <c r="A6" s="125"/>
-      <c r="B6" s="130" t="s">
+    <row r="6" ht="27" spans="1:18">
+      <c r="A6" s="13"/>
+      <c r="B6" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="9" t="s">
+      <c r="F6" s="18"/>
+      <c r="G6" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="28" t="s">
+      <c r="H6" s="18"/>
+      <c r="I6" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="L6" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="M6" s="8" t="s">
+      <c r="M6" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="N6" s="29" t="s">
+      <c r="N6" s="77" t="s">
         <v>57</v>
       </c>
-      <c r="O6" s="8" t="s">
+      <c r="O6" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="P6" s="30" t="s">
+      <c r="P6" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
     </row>
-    <row r="7" spans="1:18" s="61" customFormat="1">
-      <c r="A7" s="125"/>
-      <c r="B7" s="130"/>
-      <c r="C7" s="52" t="s">
+    <row r="7" s="2" customFormat="1" spans="1:18">
+      <c r="A7" s="13"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="56" t="s">
+      <c r="D7" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="53" t="s">
+      <c r="E7" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="52"/>
-      <c r="G7" s="53" t="s">
+      <c r="F7" s="21"/>
+      <c r="G7" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="77" t="s">
+      <c r="H7" s="21"/>
+      <c r="I7" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="53" t="s">
+      <c r="J7" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="52" t="s">
+      <c r="K7" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="L7" s="52" t="s">
+      <c r="L7" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="M7" s="52" t="s">
+      <c r="M7" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="N7" s="52"/>
-      <c r="O7" s="52" t="s">
+      <c r="N7" s="21"/>
+      <c r="O7" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="P7" s="81" t="s">
+      <c r="P7" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="Q7" s="56"/>
-      <c r="R7" s="56" t="s">
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" s="125"/>
-      <c r="B8" s="130"/>
-      <c r="C8" s="66" t="s">
+      <c r="A8" s="13"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="66" t="s">
+      <c r="D8" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E8" s="71" t="s">
+      <c r="E8" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="66"/>
-      <c r="G8" s="71" t="s">
+      <c r="F8" s="10"/>
+      <c r="G8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="66"/>
-      <c r="I8" s="74" t="s">
+      <c r="H8" s="10"/>
+      <c r="I8" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="71"/>
-      <c r="K8" s="66" t="s">
+      <c r="J8" s="12"/>
+      <c r="K8" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="L8" s="66"/>
-      <c r="M8" s="66"/>
-      <c r="N8" s="66"/>
-      <c r="O8" s="66"/>
-      <c r="P8" s="72"/>
-      <c r="Q8" s="66"/>
-      <c r="R8" s="66"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="70"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="125"/>
-      <c r="B9" s="130"/>
-      <c r="C9" s="66" t="s">
+      <c r="A9" s="13"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="70" t="s">
+      <c r="D9" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="71" t="s">
+      <c r="E9" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="66"/>
-      <c r="G9" s="71" t="s">
+      <c r="F9" s="10"/>
+      <c r="G9" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="66"/>
-      <c r="I9" s="71" t="s">
+      <c r="H9" s="10"/>
+      <c r="I9" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J9" s="71"/>
-      <c r="K9" s="66" t="s">
+      <c r="J9" s="12"/>
+      <c r="K9" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="L9" s="66"/>
-      <c r="M9" s="66"/>
-      <c r="N9" s="66"/>
-      <c r="O9" s="66"/>
-      <c r="P9" s="72"/>
-      <c r="Q9" s="66"/>
-      <c r="R9" s="66"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="70"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="125"/>
-      <c r="B10" s="130"/>
-      <c r="C10" s="10" t="s">
+      <c r="A10" s="13"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="7" t="s">
+      <c r="F10" s="19"/>
+      <c r="G10" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="28" t="s">
+      <c r="H10" s="19"/>
+      <c r="I10" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="J10" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="K10" s="10" t="s">
+      <c r="K10" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="L10" s="8" t="s">
+      <c r="L10" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="M10" s="8" t="s">
+      <c r="M10" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="N10" s="29" t="s">
+      <c r="N10" s="77" t="s">
         <v>75</v>
       </c>
-      <c r="O10" s="8" t="s">
+      <c r="O10" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="P10" s="31" t="s">
+      <c r="P10" s="80" t="s">
         <v>76</v>
       </c>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
     </row>
     <row r="11" spans="1:18">
-      <c r="A11" s="125"/>
-      <c r="B11" s="130"/>
-      <c r="C11" s="11" t="s">
+      <c r="A11" s="13"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="7" t="s">
+      <c r="F11" s="19"/>
+      <c r="G11" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="H11" s="10"/>
-      <c r="I11" s="28" t="s">
+      <c r="H11" s="19"/>
+      <c r="I11" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="K11" s="10" t="s">
+      <c r="K11" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="L11" s="10" t="s">
+      <c r="L11" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="M11" s="10" t="s">
+      <c r="M11" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="N11" s="29" t="s">
+      <c r="N11" s="77" t="s">
         <v>84</v>
       </c>
-      <c r="O11" s="10" t="s">
+      <c r="O11" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="P11" s="30" t="s">
+      <c r="P11" s="78" t="s">
         <v>85</v>
       </c>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
     </row>
     <row r="12" spans="1:18">
-      <c r="A12" s="125"/>
-      <c r="B12" s="130"/>
-      <c r="C12" s="10" t="s">
+      <c r="A12" s="13"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="7" t="s">
+      <c r="F12" s="19"/>
+      <c r="G12" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="28" t="s">
+      <c r="H12" s="19"/>
+      <c r="I12" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="J12" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="K12" s="10" t="s">
+      <c r="K12" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="L12" s="8" t="s">
+      <c r="L12" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="M12" s="8" t="s">
+      <c r="M12" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="N12" s="29" t="s">
+      <c r="N12" s="77" t="s">
         <v>92</v>
       </c>
-      <c r="O12" s="8" t="s">
+      <c r="O12" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="P12" s="31" t="s">
+      <c r="P12" s="80" t="s">
         <v>93</v>
       </c>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="125"/>
-      <c r="B13" s="130"/>
-      <c r="C13" s="10" t="s">
+      <c r="A13" s="13"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="7" t="s">
+      <c r="F13" s="19"/>
+      <c r="G13" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="28" t="s">
+      <c r="H13" s="19"/>
+      <c r="I13" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="J13" s="9" t="s">
+      <c r="J13" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="K13" s="10" t="s">
+      <c r="K13" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="L13" s="8" t="s">
+      <c r="L13" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="M13" s="8" t="s">
+      <c r="M13" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="N13" s="29" t="s">
+      <c r="N13" s="77" t="s">
         <v>99</v>
       </c>
-      <c r="O13" s="8" t="s">
+      <c r="O13" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="P13" s="31" t="s">
+      <c r="P13" s="80" t="s">
         <v>100</v>
       </c>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
     </row>
     <row r="14" spans="1:18">
-      <c r="A14" s="125"/>
-      <c r="B14" s="130"/>
-      <c r="C14" s="10" t="s">
+      <c r="A14" s="13"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="7" t="s">
+      <c r="F14" s="19"/>
+      <c r="G14" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="28" t="s">
+      <c r="H14" s="19"/>
+      <c r="I14" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="J14" s="9" t="s">
+      <c r="J14" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="K14" s="10" t="s">
+      <c r="K14" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="L14" s="8" t="s">
+      <c r="L14" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="M14" s="8" t="s">
+      <c r="M14" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="N14" s="29" t="s">
+      <c r="N14" s="77" t="s">
         <v>107</v>
       </c>
-      <c r="O14" s="8" t="s">
+      <c r="O14" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="P14" s="31" t="s">
+      <c r="P14" s="80" t="s">
         <v>108</v>
       </c>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
     </row>
-    <row r="15" spans="1:18" ht="33">
-      <c r="A15" s="126"/>
-      <c r="B15" s="130" t="s">
+    <row r="15" ht="33" spans="1:18">
+      <c r="A15" s="24"/>
+      <c r="B15" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="D15" s="108" t="s">
+      <c r="D15" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="H15" s="8"/>
-      <c r="I15" s="28" t="s">
+      <c r="H15" s="18"/>
+      <c r="I15" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="J15" s="9" t="s">
+      <c r="J15" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="K15" s="32" t="s">
+      <c r="K15" s="81" t="s">
         <v>114</v>
       </c>
-      <c r="L15" s="8" t="s">
+      <c r="L15" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="M15" s="8" t="s">
+      <c r="M15" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="N15" s="8" t="s">
+      <c r="N15" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="O15" s="33" t="s">
+      <c r="O15" s="82" t="s">
         <v>118</v>
       </c>
-      <c r="P15" s="34" t="s">
+      <c r="P15" s="83" t="s">
         <v>119</v>
       </c>
-      <c r="Q15" s="10" t="s">
+      <c r="Q15" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="R15" s="10"/>
+      <c r="R15" s="123"/>
     </row>
-    <row r="16" spans="1:18" s="2" customFormat="1" ht="40.5">
-      <c r="A16" s="126"/>
-      <c r="B16" s="130"/>
-      <c r="C16" s="13" t="s">
+    <row r="16" s="3" customFormat="1" ht="40.5" spans="1:18">
+      <c r="A16" s="24"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="D16" s="109" t="s">
+      <c r="D16" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="H16" s="13"/>
-      <c r="I16" s="35" t="s">
+      <c r="H16" s="26"/>
+      <c r="I16" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="J16" s="14" t="s">
+      <c r="J16" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="K16" s="36" t="s">
+      <c r="K16" s="85" t="s">
         <v>123</v>
       </c>
-      <c r="L16" s="13" t="s">
+      <c r="L16" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="M16" s="13" t="s">
+      <c r="M16" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="N16" s="13" t="s">
+      <c r="N16" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="O16" s="37" t="s">
+      <c r="O16" s="86" t="s">
         <v>118</v>
       </c>
-      <c r="P16" s="38" t="s">
+      <c r="P16" s="87" t="s">
         <v>127</v>
       </c>
-      <c r="Q16" s="36" t="s">
+      <c r="Q16" s="85" t="s">
         <v>120</v>
       </c>
-      <c r="R16" s="36"/>
+      <c r="R16" s="85"/>
     </row>
-    <row r="17" spans="1:18" ht="28.5">
-      <c r="A17" s="126"/>
-      <c r="B17" s="130"/>
-      <c r="C17" s="62" t="s">
+    <row r="17" ht="28.5" spans="1:18">
+      <c r="A17" s="24"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="D17" s="110" t="s">
+      <c r="D17" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="E17" s="63" t="s">
+      <c r="E17" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="F17" s="63" t="s">
+      <c r="F17" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="G17" s="63" t="s">
+      <c r="G17" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="H17" s="62"/>
-      <c r="I17" s="71" t="s">
+      <c r="H17" s="29"/>
+      <c r="I17" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J17" s="63" t="s">
+      <c r="J17" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="K17" s="66" t="s">
+      <c r="K17" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="L17" s="62" t="s">
+      <c r="L17" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="M17" s="62" t="s">
+      <c r="M17" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="N17" s="62" t="s">
+      <c r="N17" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="O17" s="67" t="s">
+      <c r="O17" s="88" t="s">
         <v>118</v>
       </c>
-      <c r="P17" s="68" t="s">
+      <c r="P17" s="89" t="s">
         <v>134</v>
       </c>
-      <c r="Q17" s="66"/>
-      <c r="R17" s="66"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
     </row>
-    <row r="18" spans="1:18" s="61" customFormat="1" ht="40.5">
-      <c r="A18" s="126"/>
-      <c r="B18" s="130"/>
-      <c r="C18" s="52" t="s">
+    <row r="18" s="2" customFormat="1" ht="40.5" spans="1:18">
+      <c r="A18" s="24"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="D18" s="111" t="s">
+      <c r="D18" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="E18" s="53" t="s">
+      <c r="E18" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="F18" s="53" t="s">
+      <c r="F18" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="G18" s="53" t="s">
+      <c r="G18" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="H18" s="52"/>
-      <c r="I18" s="77" t="s">
+      <c r="H18" s="21"/>
+      <c r="I18" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="J18" s="53" t="s">
+      <c r="J18" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="K18" s="56" t="s">
+      <c r="K18" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="L18" s="52" t="s">
+      <c r="L18" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="M18" s="52" t="s">
+      <c r="M18" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="N18" s="52" t="s">
+      <c r="N18" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="O18" s="57" t="s">
+      <c r="O18" s="90" t="s">
         <v>118</v>
       </c>
-      <c r="P18" s="58" t="s">
+      <c r="P18" s="91" t="s">
         <v>141</v>
       </c>
-      <c r="Q18" s="56" t="s">
+      <c r="Q18" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="R18" s="56" t="s">
+      <c r="R18" s="16" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:18" s="61" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A19" s="126"/>
-      <c r="B19" s="130"/>
-      <c r="C19" s="52" t="s">
+    <row r="19" s="2" customFormat="1" ht="43.5" customHeight="1" spans="1:18">
+      <c r="A19" s="24"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="D19" s="111" t="s">
+      <c r="D19" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="E19" s="53" t="s">
+      <c r="E19" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="F19" s="53" t="s">
+      <c r="F19" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="G19" s="53" t="s">
+      <c r="G19" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="H19" s="52"/>
-      <c r="I19" s="77" t="s">
+      <c r="H19" s="21"/>
+      <c r="I19" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="J19" s="53" t="s">
+      <c r="J19" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="K19" s="56" t="s">
+      <c r="K19" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="L19" s="52" t="s">
+      <c r="L19" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="M19" s="52" t="s">
+      <c r="M19" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="N19" s="52" t="s">
+      <c r="N19" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="O19" s="57" t="s">
+      <c r="O19" s="90" t="s">
         <v>118</v>
       </c>
-      <c r="P19" s="58" t="s">
+      <c r="P19" s="91" t="s">
         <v>127</v>
       </c>
-      <c r="Q19" s="56" t="s">
+      <c r="Q19" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="R19" s="56" t="s">
+      <c r="R19" s="16" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:18" s="61" customFormat="1" ht="33">
-      <c r="A20" s="127"/>
-      <c r="B20" s="136"/>
-      <c r="C20" s="62" t="s">
+    <row r="20" s="2" customFormat="1" ht="33" spans="1:18">
+      <c r="A20" s="33"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="D20" s="110" t="s">
+      <c r="D20" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="E20" s="63" t="s">
+      <c r="E20" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="F20" s="63" t="s">
+      <c r="F20" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="G20" s="63" t="s">
+      <c r="G20" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="H20" s="62"/>
-      <c r="I20" s="64" t="s">
+      <c r="H20" s="29"/>
+      <c r="I20" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="J20" s="65" t="s">
+      <c r="J20" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="K20" s="66" t="s">
+      <c r="K20" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="L20" s="62" t="s">
+      <c r="L20" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="M20" s="62" t="s">
+      <c r="M20" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="N20" s="62" t="s">
+      <c r="N20" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="O20" s="67" t="s">
+      <c r="O20" s="88" t="s">
         <v>118</v>
       </c>
-      <c r="P20" s="68" t="s">
+      <c r="P20" s="89" t="s">
         <v>127</v>
       </c>
-      <c r="Q20" s="69" t="s">
+      <c r="Q20" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="R20" s="92" t="s">
-        <v>285</v>
+      <c r="R20" s="124" t="s">
+        <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:18" s="61" customFormat="1" ht="27">
-      <c r="A21" s="128"/>
-      <c r="B21" s="137"/>
-      <c r="C21" s="52" t="s">
+    <row r="21" s="2" customFormat="1" ht="27" spans="1:18">
+      <c r="A21" s="35"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="H21" s="21"/>
+      <c r="I21" s="73" t="s">
+        <v>43</v>
+      </c>
+      <c r="J21" s="94" t="s">
+        <v>34</v>
+      </c>
+      <c r="K21" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="L21" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="M21" s="74" t="s">
+        <v>159</v>
+      </c>
+      <c r="N21" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="O21" s="90" t="s">
+        <v>118</v>
+      </c>
+      <c r="P21" s="91" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q21" s="125" t="s">
+        <v>120</v>
+      </c>
+      <c r="R21" s="125" t="s">
         <v>154</v>
       </c>
-      <c r="D21" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="E21" s="53" t="s">
+    </row>
+    <row r="22" ht="67.5" spans="1:18">
+      <c r="A22" s="24"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="E22" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="F21" s="53" t="s">
+      <c r="F22" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="G21" s="53" t="s">
+      <c r="G22" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="H21" s="52"/>
-      <c r="I21" s="54" t="s">
+      <c r="H22" s="18"/>
+      <c r="I22" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="J21" s="55" t="s">
+      <c r="J22" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="K21" s="56" t="s">
-        <v>156</v>
-      </c>
-      <c r="L21" s="52" t="s">
-        <v>157</v>
-      </c>
-      <c r="M21" s="60" t="s">
-        <v>158</v>
-      </c>
-      <c r="N21" s="52" t="s">
-        <v>159</v>
-      </c>
-      <c r="O21" s="57" t="s">
+      <c r="K22" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="L22" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="M22" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="N22" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="O22" s="82" t="s">
         <v>118</v>
       </c>
-      <c r="P21" s="58" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q21" s="59" t="s">
+      <c r="P22" s="95" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q22" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="R21" s="59" t="s">
-        <v>160</v>
-      </c>
+      <c r="R22" s="19"/>
     </row>
-    <row r="22" spans="1:18" ht="67.5">
-      <c r="A22" s="126"/>
-      <c r="B22" s="130"/>
-      <c r="C22" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="D22" s="108" t="s">
-        <v>162</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="H22" s="8"/>
-      <c r="I22" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="K22" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="L22" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="M22" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="N22" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="O22" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="P22" s="34" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q22" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="R22" s="10"/>
-    </row>
-    <row r="23" spans="1:18" ht="13.5" customHeight="1">
-      <c r="A23" s="125"/>
-      <c r="B23" s="130" t="s">
+    <row r="23" customHeight="1" spans="1:18">
+      <c r="A23" s="13"/>
+      <c r="B23" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="C23" s="66" t="s">
+      <c r="C23" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D23" s="66"/>
-      <c r="E23" s="71" t="s">
+      <c r="D23" s="10"/>
+      <c r="E23" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="F23" s="66"/>
-      <c r="G23" s="71" t="s">
+      <c r="F23" s="10"/>
+      <c r="G23" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="H23" s="66"/>
-      <c r="I23" s="71" t="s">
+      <c r="H23" s="10"/>
+      <c r="I23" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J23" s="71"/>
-      <c r="K23" s="66" t="s">
+      <c r="J23" s="12"/>
+      <c r="K23" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="L23" s="66"/>
-      <c r="M23" s="66"/>
-      <c r="N23" s="66"/>
-      <c r="O23" s="66"/>
-      <c r="P23" s="72"/>
-      <c r="Q23" s="66" t="s">
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="70"/>
+      <c r="Q23" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="R23" s="66"/>
+      <c r="R23" s="10"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="125"/>
-      <c r="B24" s="130"/>
-      <c r="C24" s="66" t="s">
+      <c r="A24" s="13"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="D24" s="66"/>
-      <c r="E24" s="71" t="s">
+      <c r="D24" s="10"/>
+      <c r="E24" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="F24" s="66"/>
-      <c r="G24" s="71" t="s">
+      <c r="F24" s="10"/>
+      <c r="G24" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="H24" s="66"/>
-      <c r="I24" s="71" t="s">
+      <c r="H24" s="10"/>
+      <c r="I24" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J24" s="71"/>
-      <c r="K24" s="66" t="s">
+      <c r="J24" s="12"/>
+      <c r="K24" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="L24" s="66"/>
-      <c r="M24" s="66"/>
-      <c r="N24" s="66"/>
-      <c r="O24" s="66"/>
-      <c r="P24" s="72"/>
-      <c r="Q24" s="66"/>
-      <c r="R24" s="66"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="70"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
     </row>
     <row r="25" spans="1:18">
-      <c r="A25" s="125"/>
-      <c r="B25" s="9" t="s">
+      <c r="A25" s="13"/>
+      <c r="B25" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="E25" s="15" t="s">
+      <c r="E25" s="37" t="s">
         <v>177</v>
       </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="9" t="s">
+      <c r="F25" s="18"/>
+      <c r="G25" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="H25" s="8"/>
-      <c r="I25" s="28" t="s">
+      <c r="H25" s="18"/>
+      <c r="I25" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="J25" s="9" t="s">
+      <c r="J25" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="K25" s="8" t="s">
+      <c r="K25" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="L25" s="8" t="s">
+      <c r="L25" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="M25" s="8" t="s">
+      <c r="M25" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="N25" s="29" t="s">
+      <c r="N25" s="77" t="s">
         <v>181</v>
       </c>
-      <c r="O25" s="8" t="s">
+      <c r="O25" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="P25" s="31" t="s">
+      <c r="P25" s="80" t="s">
         <v>182</v>
       </c>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="10"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
     </row>
-    <row r="26" spans="1:18" s="61" customFormat="1">
-      <c r="A26" s="125"/>
-      <c r="B26" s="12" t="s">
+    <row r="26" s="2" customFormat="1" spans="1:18">
+      <c r="A26" s="13"/>
+      <c r="B26" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="C26" s="56" t="s">
+      <c r="C26" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="D26" s="56" t="s">
+      <c r="D26" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="E26" s="76" t="s">
+      <c r="E26" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="F26" s="56"/>
-      <c r="G26" s="76" t="s">
+      <c r="F26" s="16"/>
+      <c r="G26" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="H26" s="56"/>
-      <c r="I26" s="77" t="s">
+      <c r="H26" s="16"/>
+      <c r="I26" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="J26" s="53" t="s">
+      <c r="J26" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="K26" s="56" t="s">
+      <c r="K26" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="L26" s="56" t="s">
+      <c r="L26" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="M26" s="56" t="s">
+      <c r="M26" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="N26" s="78" t="s">
+      <c r="N26" s="74" t="s">
         <v>189</v>
       </c>
-      <c r="O26" s="56" t="s">
+      <c r="O26" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="P26" s="79" t="s">
+      <c r="P26" s="75" t="s">
         <v>190</v>
       </c>
-      <c r="Q26" s="56"/>
-      <c r="R26" s="56" t="s">
-        <v>160</v>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="16" t="s">
+        <v>154</v>
       </c>
     </row>
-    <row r="27" spans="1:18" s="61" customFormat="1">
-      <c r="A27" s="125"/>
-      <c r="B27" s="12" t="s">
+    <row r="27" s="2" customFormat="1" spans="1:18">
+      <c r="A27" s="13"/>
+      <c r="B27" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="C27" s="56" t="s">
+      <c r="C27" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="D27" s="56" t="s">
+      <c r="D27" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="E27" s="76" t="s">
+      <c r="E27" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="F27" s="56"/>
-      <c r="G27" s="76" t="s">
+      <c r="F27" s="16"/>
+      <c r="G27" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="H27" s="56"/>
-      <c r="I27" s="77" t="s">
+      <c r="H27" s="16"/>
+      <c r="I27" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="J27" s="53" t="s">
+      <c r="J27" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="K27" s="56" t="s">
+      <c r="K27" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="L27" s="56" t="s">
+      <c r="L27" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="M27" s="56" t="s">
+      <c r="M27" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="N27" s="78" t="s">
+      <c r="N27" s="74" t="s">
         <v>196</v>
       </c>
-      <c r="O27" s="56" t="s">
+      <c r="O27" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="P27" s="79" t="s">
+      <c r="P27" s="75" t="s">
         <v>197</v>
       </c>
-      <c r="Q27" s="56"/>
-      <c r="R27" s="56" t="s">
-        <v>160</v>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="16" t="s">
+        <v>154</v>
       </c>
     </row>
-    <row r="28" spans="1:18" s="61" customFormat="1">
-      <c r="A28" s="125"/>
-      <c r="B28" s="12" t="s">
+    <row r="28" s="2" customFormat="1" spans="1:18">
+      <c r="A28" s="13"/>
+      <c r="B28" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="C28" s="56" t="s">
+      <c r="C28" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="D28" s="56" t="s">
+      <c r="D28" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="E28" s="76" t="s">
+      <c r="E28" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="F28" s="56"/>
-      <c r="G28" s="76" t="s">
+      <c r="F28" s="16"/>
+      <c r="G28" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="H28" s="56"/>
-      <c r="I28" s="77" t="s">
+      <c r="H28" s="16"/>
+      <c r="I28" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="J28" s="53" t="s">
+      <c r="J28" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="K28" s="56" t="s">
+      <c r="K28" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="L28" s="56" t="s">
+      <c r="L28" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="M28" s="56" t="s">
+      <c r="M28" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="N28" s="78" t="s">
+      <c r="N28" s="74" t="s">
         <v>203</v>
       </c>
-      <c r="O28" s="56" t="s">
+      <c r="O28" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="P28" s="79" t="s">
+      <c r="P28" s="75" t="s">
         <v>204</v>
       </c>
-      <c r="Q28" s="56"/>
-      <c r="R28" s="56" t="s">
-        <v>160</v>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="16" t="s">
+        <v>154</v>
       </c>
     </row>
-    <row r="29" spans="1:18" s="61" customFormat="1">
-      <c r="A29" s="125"/>
-      <c r="B29" s="12" t="s">
+    <row r="29" s="2" customFormat="1" spans="1:18">
+      <c r="A29" s="13"/>
+      <c r="B29" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="C29" s="56" t="s">
+      <c r="C29" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="D29" s="56" t="s">
+      <c r="D29" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="E29" s="76" t="s">
+      <c r="E29" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="F29" s="56"/>
-      <c r="G29" s="76" t="s">
+      <c r="F29" s="16"/>
+      <c r="G29" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="H29" s="56"/>
-      <c r="I29" s="77" t="s">
+      <c r="H29" s="16"/>
+      <c r="I29" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="J29" s="53" t="s">
+      <c r="J29" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="K29" s="56" t="s">
+      <c r="K29" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="L29" s="56" t="s">
+      <c r="L29" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="M29" s="56" t="s">
+      <c r="M29" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="N29" s="78" t="s">
+      <c r="N29" s="74" t="s">
         <v>210</v>
       </c>
-      <c r="O29" s="56"/>
-      <c r="P29" s="79"/>
-      <c r="Q29" s="56"/>
-      <c r="R29" s="56" t="s">
-        <v>160</v>
+      <c r="O29" s="16"/>
+      <c r="P29" s="75"/>
+      <c r="Q29" s="16"/>
+      <c r="R29" s="16" t="s">
+        <v>154</v>
       </c>
     </row>
-    <row r="30" spans="1:18" s="61" customFormat="1" ht="16.5">
-      <c r="A30" s="125"/>
-      <c r="B30" s="80" t="s">
+    <row r="30" s="2" customFormat="1" ht="16.5" spans="1:18">
+      <c r="A30" s="13"/>
+      <c r="B30" s="38" t="s">
         <v>211</v>
       </c>
-      <c r="C30" s="82" t="s">
+      <c r="C30" s="39" t="s">
         <v>212</v>
       </c>
-      <c r="D30" s="112" t="s">
+      <c r="D30" s="40" t="s">
         <v>213</v>
       </c>
-      <c r="E30" s="83" t="s">
+      <c r="E30" s="41" t="s">
         <v>186</v>
       </c>
-      <c r="F30" s="83"/>
-      <c r="G30" s="84" t="s">
+      <c r="F30" s="41"/>
+      <c r="G30" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="H30" s="85"/>
-      <c r="I30" s="77" t="s">
+      <c r="H30" s="43"/>
+      <c r="I30" s="73" t="s">
         <v>214</v>
       </c>
-      <c r="J30" s="84" t="s">
+      <c r="J30" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="K30" s="86" t="s">
+      <c r="K30" s="96" t="s">
         <v>213</v>
       </c>
-      <c r="L30" s="87" t="s">
+      <c r="L30" s="97" t="s">
         <v>215</v>
       </c>
-      <c r="M30" s="88" t="s">
+      <c r="M30" s="98" t="s">
         <v>216</v>
       </c>
-      <c r="N30" s="89" t="s">
+      <c r="N30" s="99" t="s">
         <v>217</v>
       </c>
-      <c r="O30" s="90" t="s">
+      <c r="O30" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="P30" s="91" t="s">
+      <c r="P30" s="101" t="s">
         <v>218</v>
       </c>
-      <c r="Q30" s="56"/>
-      <c r="R30" s="56" t="s">
-        <v>160</v>
+      <c r="Q30" s="16"/>
+      <c r="R30" s="16" t="s">
+        <v>154</v>
       </c>
     </row>
-    <row r="31" spans="1:18" s="61" customFormat="1" ht="27">
-      <c r="A31" s="126"/>
-      <c r="B31" s="80" t="s">
+    <row r="31" s="2" customFormat="1" ht="27" spans="1:18">
+      <c r="A31" s="24"/>
+      <c r="B31" s="38" t="s">
         <v>219</v>
       </c>
-      <c r="C31" s="113" t="s">
-        <v>286</v>
-      </c>
-      <c r="D31" s="114" t="s">
+      <c r="C31" s="44" t="s">
         <v>220</v>
       </c>
-      <c r="E31" s="80" t="s">
+      <c r="D31" s="45" t="s">
         <v>221</v>
       </c>
-      <c r="F31" s="80" t="s">
-        <v>221</v>
-      </c>
-      <c r="G31" s="115" t="s">
+      <c r="E31" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="F31" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="G31" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="H31" s="116"/>
-      <c r="I31" s="117" t="s">
+      <c r="H31" s="47"/>
+      <c r="I31" s="102" t="s">
         <v>43</v>
       </c>
-      <c r="J31" s="115" t="s">
+      <c r="J31" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="K31" s="118" t="s">
-        <v>222</v>
-      </c>
-      <c r="L31" s="119" t="s">
+      <c r="K31" s="103" t="s">
         <v>223</v>
       </c>
-      <c r="M31" s="120" t="s">
+      <c r="L31" s="104" t="s">
         <v>224</v>
       </c>
-      <c r="N31" s="121" t="s">
+      <c r="M31" s="105" t="s">
         <v>225</v>
       </c>
-      <c r="O31" s="122" t="s">
+      <c r="N31" s="106" t="s">
+        <v>226</v>
+      </c>
+      <c r="O31" s="107" t="s">
         <v>118</v>
       </c>
-      <c r="P31" s="123" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q31" s="11" t="s">
+      <c r="P31" s="108" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q31" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="R31" s="11"/>
+      <c r="R31" s="23"/>
     </row>
     <row r="32" spans="1:18">
-      <c r="A32" s="125"/>
-      <c r="B32" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="C32" s="10" t="s">
+      <c r="A32" s="13"/>
+      <c r="B32" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="C32" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="D32" s="19" t="s">
         <v>230</v>
       </c>
-      <c r="F32" s="10"/>
-      <c r="G32" s="7" t="s">
+      <c r="E32" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="F32" s="19"/>
+      <c r="G32" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H32" s="10"/>
-      <c r="I32" s="28" t="s">
+      <c r="H32" s="19"/>
+      <c r="I32" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="J32" s="7" t="s">
+      <c r="J32" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="K32" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="L32" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="M32" s="10" t="s">
+      <c r="K32" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="N32" s="29" t="s">
+      <c r="L32" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="M32" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="O32" s="10" t="s">
+      <c r="N32" s="77" t="s">
+        <v>234</v>
+      </c>
+      <c r="O32" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="P32" s="30" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q32" s="10"/>
-      <c r="R32" s="10"/>
+      <c r="P32" s="78" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="19"/>
     </row>
     <row r="33" spans="1:18">
-      <c r="A33" s="125"/>
-      <c r="B33" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="C33" s="10" t="s">
+      <c r="A33" s="13"/>
+      <c r="B33" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="C33" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="D33" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="E33" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="F33" s="10"/>
-      <c r="G33" s="7" t="s">
+      <c r="F33" s="19"/>
+      <c r="G33" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H33" s="10"/>
-      <c r="I33" s="28" t="s">
+      <c r="H33" s="19"/>
+      <c r="I33" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="J33" s="7" t="s">
+      <c r="J33" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="K33" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="29"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="30"/>
-      <c r="Q33" s="10"/>
-      <c r="R33" s="10"/>
+      <c r="K33" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="77"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="78"/>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="19"/>
     </row>
-    <row r="34" spans="1:18" ht="27">
-      <c r="A34" s="125"/>
-      <c r="B34" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="C34" s="17" t="s">
+    <row r="34" ht="27.75" spans="1:18">
+      <c r="A34" s="13"/>
+      <c r="B34" s="48" t="s">
         <v>240</v>
       </c>
-      <c r="D34" s="17" t="s">
+      <c r="C34" s="49" t="s">
         <v>241</v>
       </c>
-      <c r="E34" s="16" t="s">
-        <v>230</v>
-      </c>
-      <c r="F34" s="17"/>
-      <c r="G34" s="16" t="s">
+      <c r="D34" s="49" t="s">
+        <v>242</v>
+      </c>
+      <c r="E34" s="48" t="s">
+        <v>231</v>
+      </c>
+      <c r="F34" s="49"/>
+      <c r="G34" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="H34" s="17"/>
-      <c r="I34" s="39" t="s">
+      <c r="H34" s="49"/>
+      <c r="I34" s="109" t="s">
         <v>43</v>
       </c>
-      <c r="J34" s="40" t="s">
+      <c r="J34" s="110" t="s">
         <v>34</v>
       </c>
-      <c r="K34" s="17" t="s">
+      <c r="K34" s="49" t="s">
+        <v>232</v>
+      </c>
+      <c r="L34" s="49" t="s">
+        <v>243</v>
+      </c>
+      <c r="M34" s="49" t="s">
+        <v>244</v>
+      </c>
+      <c r="N34" s="111" t="s">
+        <v>245</v>
+      </c>
+      <c r="O34" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="P34" s="112" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q34" s="126"/>
+      <c r="R34" s="126"/>
+    </row>
+    <row r="35" ht="27.75" spans="1:18">
+      <c r="A35" s="50" t="s">
+        <v>247</v>
+      </c>
+      <c r="B35" s="51" t="s">
+        <v>248</v>
+      </c>
+      <c r="C35" s="52" t="s">
+        <v>249</v>
+      </c>
+      <c r="D35" s="53" t="s">
+        <v>250</v>
+      </c>
+      <c r="E35" s="54" t="s">
         <v>231</v>
       </c>
-      <c r="L34" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="M34" s="17" t="s">
-        <v>243</v>
-      </c>
-      <c r="N34" s="41" t="s">
-        <v>244</v>
-      </c>
-      <c r="O34" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="P34" s="42" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q34" s="51"/>
-      <c r="R34" s="51"/>
-    </row>
-    <row r="35" spans="1:18" ht="27">
-      <c r="A35" s="18" t="s">
-        <v>246</v>
-      </c>
-      <c r="B35" s="19" t="s">
-        <v>247</v>
-      </c>
-      <c r="C35" s="93" t="s">
-        <v>248</v>
-      </c>
-      <c r="D35" s="94" t="s">
-        <v>249</v>
-      </c>
-      <c r="E35" s="95" t="s">
-        <v>230</v>
-      </c>
-      <c r="F35" s="93"/>
-      <c r="G35" s="95" t="s">
+      <c r="F35" s="52"/>
+      <c r="G35" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="H35" s="93"/>
-      <c r="I35" s="95" t="s">
+      <c r="H35" s="52"/>
+      <c r="I35" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="J35" s="95" t="s">
+      <c r="J35" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="K35" s="93" t="s">
-        <v>250</v>
-      </c>
-      <c r="L35" s="93"/>
-      <c r="M35" s="93"/>
-      <c r="N35" s="93"/>
-      <c r="O35" s="93"/>
-      <c r="P35" s="96"/>
-      <c r="Q35" s="96"/>
-      <c r="R35" s="97"/>
+      <c r="K35" s="52" t="s">
+        <v>251</v>
+      </c>
+      <c r="L35" s="52"/>
+      <c r="M35" s="52"/>
+      <c r="N35" s="52"/>
+      <c r="O35" s="52"/>
+      <c r="P35" s="113"/>
+      <c r="Q35" s="113"/>
+      <c r="R35" s="127"/>
     </row>
     <row r="36" spans="1:18">
-      <c r="A36" s="129" t="s">
-        <v>251</v>
-      </c>
-      <c r="B36" s="20" t="s">
+      <c r="A36" s="55" t="s">
         <v>252</v>
       </c>
-      <c r="C36" s="73"/>
-      <c r="D36" s="98" t="s">
+      <c r="B36" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="E36" s="99" t="s">
+      <c r="C36" s="56"/>
+      <c r="D36" s="57" t="s">
+        <v>254</v>
+      </c>
+      <c r="E36" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="F36" s="73"/>
-      <c r="G36" s="99" t="s">
+      <c r="F36" s="56"/>
+      <c r="G36" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="H36" s="73"/>
-      <c r="I36" s="99" t="s">
+      <c r="H36" s="56"/>
+      <c r="I36" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="J36" s="99"/>
-      <c r="K36" s="73"/>
-      <c r="L36" s="73"/>
-      <c r="M36" s="73"/>
-      <c r="N36" s="73"/>
-      <c r="O36" s="73"/>
-      <c r="P36" s="100"/>
-      <c r="Q36" s="100"/>
-      <c r="R36" s="101"/>
+      <c r="J36" s="58"/>
+      <c r="K36" s="56"/>
+      <c r="L36" s="56"/>
+      <c r="M36" s="56"/>
+      <c r="N36" s="56"/>
+      <c r="O36" s="56"/>
+      <c r="P36" s="114"/>
+      <c r="Q36" s="114"/>
+      <c r="R36" s="128"/>
     </row>
     <row r="37" spans="1:18">
-      <c r="A37" s="130"/>
-      <c r="B37" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="C37" s="66"/>
-      <c r="D37" s="70"/>
-      <c r="E37" s="71" t="s">
+      <c r="A37" s="15"/>
+      <c r="B37" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="F37" s="66"/>
-      <c r="G37" s="71" t="s">
+      <c r="C37" s="10"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="F37" s="10"/>
+      <c r="G37" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="H37" s="66"/>
-      <c r="I37" s="71" t="s">
+      <c r="H37" s="10"/>
+      <c r="I37" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J37" s="71"/>
-      <c r="K37" s="66" t="s">
-        <v>256</v>
-      </c>
-      <c r="L37" s="66"/>
-      <c r="M37" s="66"/>
-      <c r="N37" s="66"/>
-      <c r="O37" s="66"/>
-      <c r="P37" s="72"/>
-      <c r="Q37" s="72"/>
-      <c r="R37" s="102"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="70"/>
+      <c r="Q37" s="70"/>
+      <c r="R37" s="129"/>
     </row>
     <row r="38" spans="1:18">
-      <c r="A38" s="130"/>
-      <c r="B38" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="C38" s="66"/>
-      <c r="D38" s="70" t="s">
+      <c r="A38" s="15"/>
+      <c r="B38" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="E38" s="71" t="s">
+      <c r="C38" s="10"/>
+      <c r="D38" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="E38" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="F38" s="66"/>
-      <c r="G38" s="71" t="s">
+      <c r="F38" s="10"/>
+      <c r="G38" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H38" s="66"/>
-      <c r="I38" s="71" t="s">
-        <v>259</v>
-      </c>
-      <c r="J38" s="71" t="s">
+      <c r="H38" s="10"/>
+      <c r="I38" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="J38" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="K38" s="66" t="s">
-        <v>259</v>
-      </c>
-      <c r="L38" s="66"/>
-      <c r="M38" s="66"/>
-      <c r="N38" s="66"/>
-      <c r="O38" s="66"/>
-      <c r="P38" s="72"/>
-      <c r="Q38" s="72"/>
-      <c r="R38" s="102"/>
+      <c r="K38" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="70"/>
+      <c r="Q38" s="70"/>
+      <c r="R38" s="129"/>
     </row>
     <row r="39" spans="1:18">
-      <c r="A39" s="130"/>
-      <c r="B39" s="12" t="s">
+      <c r="A39" s="15"/>
+      <c r="B39" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="C39" s="10"/>
+      <c r="D39" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F39" s="10"/>
+      <c r="G39" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H39" s="10"/>
+      <c r="I39" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="C39" s="66"/>
-      <c r="D39" s="70" t="s">
-        <v>261</v>
-      </c>
-      <c r="E39" s="71" t="s">
-        <v>53</v>
-      </c>
-      <c r="F39" s="66"/>
-      <c r="G39" s="71" t="s">
-        <v>28</v>
-      </c>
-      <c r="H39" s="66"/>
-      <c r="I39" s="71" t="s">
-        <v>259</v>
-      </c>
-      <c r="J39" s="71" t="s">
+      <c r="J39" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="K39" s="66" t="s">
-        <v>259</v>
-      </c>
-      <c r="L39" s="66"/>
-      <c r="M39" s="66"/>
-      <c r="N39" s="66"/>
-      <c r="O39" s="66"/>
-      <c r="P39" s="72"/>
-      <c r="Q39" s="72"/>
-      <c r="R39" s="102"/>
+      <c r="K39" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="70"/>
+      <c r="Q39" s="70"/>
+      <c r="R39" s="129"/>
     </row>
     <row r="40" spans="1:18">
-      <c r="A40" s="130"/>
-      <c r="B40" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="C40" s="66"/>
-      <c r="D40" s="70" t="s">
+      <c r="A40" s="15"/>
+      <c r="B40" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="E40" s="71" t="s">
+      <c r="C40" s="10"/>
+      <c r="D40" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="E40" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="F40" s="66"/>
-      <c r="G40" s="71" t="s">
+      <c r="F40" s="10"/>
+      <c r="G40" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H40" s="66"/>
-      <c r="I40" s="71" t="s">
+      <c r="H40" s="10"/>
+      <c r="I40" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J40" s="71"/>
-      <c r="K40" s="66" t="s">
-        <v>256</v>
-      </c>
-      <c r="L40" s="66"/>
-      <c r="M40" s="66"/>
-      <c r="N40" s="66"/>
-      <c r="O40" s="66"/>
-      <c r="P40" s="72"/>
-      <c r="Q40" s="72"/>
-      <c r="R40" s="102"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="70"/>
+      <c r="Q40" s="70"/>
+      <c r="R40" s="129"/>
     </row>
     <row r="41" spans="1:18">
-      <c r="A41" s="130"/>
-      <c r="B41" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="C41" s="66"/>
-      <c r="D41" s="66"/>
-      <c r="E41" s="71" t="s">
+      <c r="A41" s="15"/>
+      <c r="B41" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="F41" s="66"/>
-      <c r="G41" s="71" t="s">
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="F41" s="10"/>
+      <c r="G41" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="H41" s="66"/>
-      <c r="I41" s="71" t="s">
+      <c r="H41" s="10"/>
+      <c r="I41" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J41" s="71"/>
-      <c r="K41" s="66" t="s">
-        <v>266</v>
-      </c>
-      <c r="L41" s="66"/>
-      <c r="M41" s="66"/>
-      <c r="N41" s="66"/>
-      <c r="O41" s="66"/>
-      <c r="P41" s="72"/>
-      <c r="Q41" s="72"/>
-      <c r="R41" s="102"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="70"/>
+      <c r="Q41" s="70"/>
+      <c r="R41" s="129"/>
     </row>
     <row r="42" spans="1:18">
-      <c r="A42" s="130"/>
-      <c r="B42" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="C42" s="66"/>
-      <c r="D42" s="70" t="s">
+      <c r="A42" s="15"/>
+      <c r="B42" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="E42" s="71" t="s">
+      <c r="C42" s="10"/>
+      <c r="D42" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="E42" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="F42" s="66"/>
-      <c r="G42" s="71" t="s">
+      <c r="F42" s="10"/>
+      <c r="G42" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H42" s="66"/>
-      <c r="I42" s="71" t="s">
+      <c r="H42" s="10"/>
+      <c r="I42" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="J42" s="71" t="s">
+      <c r="J42" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="K42" s="66" t="s">
-        <v>269</v>
-      </c>
-      <c r="L42" s="66"/>
-      <c r="M42" s="66"/>
-      <c r="N42" s="66"/>
-      <c r="O42" s="66"/>
-      <c r="P42" s="72"/>
-      <c r="Q42" s="72"/>
-      <c r="R42" s="102"/>
+      <c r="K42" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="70"/>
+      <c r="Q42" s="70"/>
+      <c r="R42" s="129"/>
     </row>
-    <row r="43" spans="1:18">
-      <c r="A43" s="131"/>
-      <c r="B43" s="21" t="s">
-        <v>270</v>
-      </c>
-      <c r="C43" s="103"/>
-      <c r="D43" s="104" t="s">
+    <row r="43" ht="14.25" spans="1:18">
+      <c r="A43" s="59"/>
+      <c r="B43" s="60" t="s">
         <v>271</v>
       </c>
-      <c r="E43" s="105" t="s">
+      <c r="C43" s="61"/>
+      <c r="D43" s="62" t="s">
+        <v>272</v>
+      </c>
+      <c r="E43" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="F43" s="103"/>
-      <c r="G43" s="105" t="s">
+      <c r="F43" s="61"/>
+      <c r="G43" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="H43" s="103"/>
-      <c r="I43" s="105" t="s">
-        <v>259</v>
-      </c>
-      <c r="J43" s="105" t="s">
+      <c r="H43" s="61"/>
+      <c r="I43" s="63" t="s">
+        <v>260</v>
+      </c>
+      <c r="J43" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="K43" s="103" t="s">
-        <v>259</v>
-      </c>
-      <c r="L43" s="103"/>
-      <c r="M43" s="103"/>
-      <c r="N43" s="103"/>
-      <c r="O43" s="103"/>
-      <c r="P43" s="106"/>
-      <c r="Q43" s="106"/>
-      <c r="R43" s="107"/>
+      <c r="K43" s="61" t="s">
+        <v>260</v>
+      </c>
+      <c r="L43" s="61"/>
+      <c r="M43" s="61"/>
+      <c r="N43" s="61"/>
+      <c r="O43" s="61"/>
+      <c r="P43" s="115"/>
+      <c r="Q43" s="115"/>
+      <c r="R43" s="130"/>
     </row>
     <row r="44" spans="1:18">
-      <c r="A44" s="132" t="s">
-        <v>272</v>
-      </c>
-      <c r="B44" s="20" t="s">
+      <c r="A44" s="64" t="s">
         <v>273</v>
       </c>
-      <c r="C44" s="23" t="s">
+      <c r="B44" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="D44" s="23" t="s">
+      <c r="C44" s="65" t="s">
         <v>275</v>
       </c>
-      <c r="E44" s="22" t="s">
+      <c r="D44" s="65" t="s">
         <v>276</v>
       </c>
-      <c r="F44" s="23"/>
-      <c r="G44" s="22" t="s">
+      <c r="E44" s="64" t="s">
+        <v>277</v>
+      </c>
+      <c r="F44" s="65"/>
+      <c r="G44" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="H44" s="23"/>
-      <c r="I44" s="43" t="s">
+      <c r="H44" s="65"/>
+      <c r="I44" s="116" t="s">
         <v>43</v>
       </c>
-      <c r="J44" s="22" t="s">
+      <c r="J44" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="K44" s="23" t="s">
+      <c r="K44" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="L44" s="23" t="s">
+      <c r="L44" s="65" t="s">
+        <v>278</v>
+      </c>
+      <c r="M44" s="65" t="s">
+        <v>279</v>
+      </c>
+      <c r="N44" s="117" t="s">
+        <v>280</v>
+      </c>
+      <c r="O44" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="P44" s="118" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q44" s="131"/>
+      <c r="R44" s="131"/>
+    </row>
+    <row r="45" ht="14.25" spans="1:18">
+      <c r="A45" s="66"/>
+      <c r="B45" s="60" t="s">
+        <v>274</v>
+      </c>
+      <c r="C45" s="67" t="s">
+        <v>281</v>
+      </c>
+      <c r="D45" s="67" t="s">
+        <v>282</v>
+      </c>
+      <c r="E45" s="66" t="s">
         <v>277</v>
       </c>
-      <c r="M44" s="23" t="s">
-        <v>278</v>
-      </c>
-      <c r="N44" s="44" t="s">
-        <v>279</v>
-      </c>
-      <c r="O44" s="23" t="s">
+      <c r="F45" s="67"/>
+      <c r="G45" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="H45" s="67"/>
+      <c r="I45" s="119" t="s">
+        <v>43</v>
+      </c>
+      <c r="J45" s="66" t="s">
+        <v>34</v>
+      </c>
+      <c r="K45" s="67" t="s">
+        <v>81</v>
+      </c>
+      <c r="L45" s="67" t="s">
+        <v>283</v>
+      </c>
+      <c r="M45" s="67" t="s">
+        <v>284</v>
+      </c>
+      <c r="N45" s="120" t="s">
+        <v>285</v>
+      </c>
+      <c r="O45" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="P44" s="45" t="s">
+      <c r="P45" s="121" t="s">
         <v>85</v>
       </c>
-      <c r="Q44" s="50"/>
-      <c r="R44" s="50"/>
-    </row>
-    <row r="45" spans="1:18">
-      <c r="A45" s="133"/>
-      <c r="B45" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="C45" s="25" t="s">
-        <v>280</v>
-      </c>
-      <c r="D45" s="25" t="s">
-        <v>281</v>
-      </c>
-      <c r="E45" s="24" t="s">
-        <v>276</v>
-      </c>
-      <c r="F45" s="25"/>
-      <c r="G45" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="H45" s="25"/>
-      <c r="I45" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="J45" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="K45" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="L45" s="25" t="s">
-        <v>282</v>
-      </c>
-      <c r="M45" s="25" t="s">
-        <v>283</v>
-      </c>
-      <c r="N45" s="47" t="s">
-        <v>284</v>
-      </c>
-      <c r="O45" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="P45" s="48" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q45" s="51"/>
-      <c r="R45" s="51"/>
+      <c r="Q45" s="126"/>
+      <c r="R45" s="126"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:R45"/>
@@ -4001,8 +4557,8 @@
     <mergeCell ref="B15:B22"/>
     <mergeCell ref="B23:B24"/>
   </mergeCells>
-  <phoneticPr fontId="14" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/docs/timer/定时器整理.xlsx
+++ b/docs/timer/定时器整理.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="298">
   <si>
     <t>定时器大类</t>
   </si>
@@ -1839,6 +1839,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1883,9 +1886,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2166,8 +2166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="M13" workbookViewId="0">
+      <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2254,10 +2254,10 @@
       </c>
     </row>
     <row r="2" spans="1:19" s="2" customFormat="1">
-      <c r="A2" s="142" t="s">
+      <c r="A2" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="152" t="s">
+      <c r="B2" s="153" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -2290,8 +2290,8 @@
       <c r="R2" s="55"/>
     </row>
     <row r="3" spans="1:19" s="2" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A3" s="143"/>
-      <c r="B3" s="153"/>
+      <c r="A3" s="144"/>
+      <c r="B3" s="154"/>
       <c r="C3" s="9" t="s">
         <v>27</v>
       </c>
@@ -2322,8 +2322,8 @@
       <c r="R3" s="9"/>
     </row>
     <row r="4" spans="1:19" s="2" customFormat="1" ht="27">
-      <c r="A4" s="143"/>
-      <c r="B4" s="148" t="s">
+      <c r="A4" s="144"/>
+      <c r="B4" s="149" t="s">
         <v>30</v>
       </c>
       <c r="C4" s="9" t="s">
@@ -2366,8 +2366,8 @@
       <c r="R4" s="9"/>
     </row>
     <row r="5" spans="1:19" s="2" customFormat="1" ht="40.5">
-      <c r="A5" s="143"/>
-      <c r="B5" s="148"/>
+      <c r="A5" s="144"/>
+      <c r="B5" s="149"/>
       <c r="C5" s="14" t="s">
         <v>40</v>
       </c>
@@ -2410,10 +2410,13 @@
       <c r="R5" s="14" t="s">
         <v>50</v>
       </c>
+      <c r="S5" s="126" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="6" spans="1:19" ht="27">
-      <c r="A6" s="143"/>
-      <c r="B6" s="148" t="s">
+      <c r="A6" s="144"/>
+      <c r="B6" s="149" t="s">
         <v>51</v>
       </c>
       <c r="C6" s="16" t="s">
@@ -2458,8 +2461,8 @@
       <c r="R6" s="17"/>
     </row>
     <row r="7" spans="1:19" s="2" customFormat="1">
-      <c r="A7" s="143"/>
-      <c r="B7" s="148"/>
+      <c r="A7" s="144"/>
+      <c r="B7" s="149"/>
       <c r="C7" s="19" t="s">
         <v>60</v>
       </c>
@@ -2500,10 +2503,13 @@
       <c r="R7" s="14" t="s">
         <v>50</v>
       </c>
+      <c r="S7" s="126" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="143"/>
-      <c r="B8" s="148"/>
+      <c r="A8" s="144"/>
+      <c r="B8" s="149"/>
       <c r="C8" s="9" t="s">
         <v>66</v>
       </c>
@@ -2534,8 +2540,8 @@
       <c r="R8" s="9"/>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="143"/>
-      <c r="B9" s="148"/>
+      <c r="A9" s="144"/>
+      <c r="B9" s="149"/>
       <c r="C9" s="9" t="s">
         <v>69</v>
       </c>
@@ -2566,8 +2572,8 @@
       <c r="R9" s="9"/>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="143"/>
-      <c r="B10" s="148"/>
+      <c r="A10" s="144"/>
+      <c r="B10" s="149"/>
       <c r="C10" s="17" t="s">
         <v>71</v>
       </c>
@@ -2610,8 +2616,8 @@
       <c r="R10" s="17"/>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="143"/>
-      <c r="B11" s="148"/>
+      <c r="A11" s="144"/>
+      <c r="B11" s="149"/>
       <c r="C11" s="21" t="s">
         <v>78</v>
       </c>
@@ -2654,8 +2660,8 @@
       <c r="R11" s="17"/>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="143"/>
-      <c r="B12" s="148"/>
+      <c r="A12" s="144"/>
+      <c r="B12" s="149"/>
       <c r="C12" s="17" t="s">
         <v>87</v>
       </c>
@@ -2698,8 +2704,8 @@
       <c r="R12" s="17"/>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="143"/>
-      <c r="B13" s="148"/>
+      <c r="A13" s="144"/>
+      <c r="B13" s="149"/>
       <c r="C13" s="17" t="s">
         <v>95</v>
       </c>
@@ -2742,8 +2748,8 @@
       <c r="R13" s="17"/>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="143"/>
-      <c r="B14" s="148"/>
+      <c r="A14" s="144"/>
+      <c r="B14" s="149"/>
       <c r="C14" s="17" t="s">
         <v>102</v>
       </c>
@@ -2786,8 +2792,8 @@
       <c r="R14" s="17"/>
     </row>
     <row r="15" spans="1:19" ht="33">
-      <c r="A15" s="144"/>
-      <c r="B15" s="148" t="s">
+      <c r="A15" s="145"/>
+      <c r="B15" s="149" t="s">
         <v>110</v>
       </c>
       <c r="C15" s="16" t="s">
@@ -2812,7 +2818,7 @@
       <c r="J15" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="K15" s="157" t="s">
+      <c r="K15" s="142" t="s">
         <v>297</v>
       </c>
       <c r="L15" s="16" t="s">
@@ -2839,8 +2845,8 @@
       </c>
     </row>
     <row r="16" spans="1:19" s="3" customFormat="1" ht="40.5">
-      <c r="A16" s="144"/>
-      <c r="B16" s="148"/>
+      <c r="A16" s="145"/>
+      <c r="B16" s="149"/>
       <c r="C16" s="23" t="s">
         <v>122</v>
       </c>
@@ -2890,8 +2896,8 @@
       </c>
     </row>
     <row r="17" spans="1:16384" ht="28.5">
-      <c r="A17" s="144"/>
-      <c r="B17" s="148"/>
+      <c r="A17" s="145"/>
+      <c r="B17" s="149"/>
       <c r="C17" s="27" t="s">
         <v>130</v>
       </c>
@@ -2936,8 +2942,8 @@
       <c r="R17" s="9"/>
     </row>
     <row r="18" spans="1:16384" s="2" customFormat="1" ht="40.5">
-      <c r="A18" s="144"/>
-      <c r="B18" s="148"/>
+      <c r="A18" s="145"/>
+      <c r="B18" s="149"/>
       <c r="C18" s="19" t="s">
         <v>137</v>
       </c>
@@ -2989,8 +2995,8 @@
       </c>
     </row>
     <row r="19" spans="1:16384" s="2" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A19" s="144"/>
-      <c r="B19" s="148"/>
+      <c r="A19" s="145"/>
+      <c r="B19" s="149"/>
       <c r="C19" s="19" t="s">
         <v>144</v>
       </c>
@@ -3042,8 +3048,8 @@
       </c>
     </row>
     <row r="20" spans="1:16384" s="2" customFormat="1" ht="33">
-      <c r="A20" s="145"/>
-      <c r="B20" s="154"/>
+      <c r="A20" s="146"/>
+      <c r="B20" s="155"/>
       <c r="C20" s="30" t="s">
         <v>151</v>
       </c>
@@ -3092,8 +3098,8 @@
       </c>
     </row>
     <row r="21" spans="1:16384" s="2" customFormat="1" ht="27">
-      <c r="A21" s="146"/>
-      <c r="B21" s="155"/>
+      <c r="A21" s="147"/>
+      <c r="B21" s="156"/>
       <c r="C21" s="32" t="s">
         <v>158</v>
       </c>
@@ -3145,8 +3151,8 @@
       </c>
     </row>
     <row r="22" spans="1:16384" s="2" customFormat="1" ht="57" customHeight="1">
-      <c r="A22" s="144"/>
-      <c r="B22" s="156"/>
+      <c r="A22" s="145"/>
+      <c r="B22" s="157"/>
       <c r="C22" s="30" t="s">
         <v>164</v>
       </c>
@@ -19559,8 +19565,8 @@
       <c r="XFD22" s="133"/>
     </row>
     <row r="23" spans="1:16384" ht="45" customHeight="1">
-      <c r="A23" s="144"/>
-      <c r="B23" s="148"/>
+      <c r="A23" s="145"/>
+      <c r="B23" s="149"/>
       <c r="C23" s="34" t="s">
         <v>171</v>
       </c>
@@ -19612,8 +19618,8 @@
       </c>
     </row>
     <row r="24" spans="1:16384" ht="13.5" customHeight="1">
-      <c r="A24" s="143"/>
-      <c r="B24" s="148" t="s">
+      <c r="A24" s="144"/>
+      <c r="B24" s="149" t="s">
         <v>179</v>
       </c>
       <c r="C24" s="9" t="s">
@@ -19646,8 +19652,8 @@
       <c r="R24" s="9"/>
     </row>
     <row r="25" spans="1:16384">
-      <c r="A25" s="143"/>
-      <c r="B25" s="148"/>
+      <c r="A25" s="144"/>
+      <c r="B25" s="149"/>
       <c r="C25" s="9" t="s">
         <v>184</v>
       </c>
@@ -19676,7 +19682,7 @@
       <c r="R25" s="9"/>
     </row>
     <row r="26" spans="1:16384">
-      <c r="A26" s="143"/>
+      <c r="A26" s="144"/>
       <c r="B26" s="18" t="s">
         <v>185</v>
       </c>
@@ -19722,7 +19728,7 @@
       <c r="R26" s="17"/>
     </row>
     <row r="27" spans="1:16384" s="2" customFormat="1">
-      <c r="A27" s="143"/>
+      <c r="A27" s="144"/>
       <c r="B27" s="12" t="s">
         <v>194</v>
       </c>
@@ -19770,7 +19776,7 @@
       </c>
     </row>
     <row r="28" spans="1:16384" s="2" customFormat="1">
-      <c r="A28" s="143"/>
+      <c r="A28" s="144"/>
       <c r="B28" s="12" t="s">
         <v>202</v>
       </c>
@@ -19818,7 +19824,7 @@
       </c>
     </row>
     <row r="29" spans="1:16384" s="2" customFormat="1">
-      <c r="A29" s="143"/>
+      <c r="A29" s="144"/>
       <c r="B29" s="12" t="s">
         <v>209</v>
       </c>
@@ -19866,7 +19872,7 @@
       </c>
     </row>
     <row r="30" spans="1:16384" s="2" customFormat="1">
-      <c r="A30" s="143"/>
+      <c r="A30" s="144"/>
       <c r="B30" s="12" t="s">
         <v>216</v>
       </c>
@@ -19910,7 +19916,7 @@
       </c>
     </row>
     <row r="31" spans="1:16384" s="2" customFormat="1" ht="16.5">
-      <c r="A31" s="143"/>
+      <c r="A31" s="144"/>
       <c r="B31" s="38" t="s">
         <v>222</v>
       </c>
@@ -19958,7 +19964,7 @@
       </c>
     </row>
     <row r="32" spans="1:16384" s="2" customFormat="1" ht="63" customHeight="1">
-      <c r="A32" s="144"/>
+      <c r="A32" s="145"/>
       <c r="B32" s="38" t="s">
         <v>230</v>
       </c>
@@ -20011,7 +20017,7 @@
       </c>
     </row>
     <row r="33" spans="1:18">
-      <c r="A33" s="143"/>
+      <c r="A33" s="144"/>
       <c r="B33" s="13" t="s">
         <v>239</v>
       </c>
@@ -20057,7 +20063,7 @@
       <c r="R33" s="17"/>
     </row>
     <row r="34" spans="1:18">
-      <c r="A34" s="143"/>
+      <c r="A34" s="144"/>
       <c r="B34" s="13" t="s">
         <v>247</v>
       </c>
@@ -20093,7 +20099,7 @@
       <c r="R34" s="17"/>
     </row>
     <row r="35" spans="1:18" ht="27">
-      <c r="A35" s="143"/>
+      <c r="A35" s="144"/>
       <c r="B35" s="48" t="s">
         <v>251</v>
       </c>
@@ -20177,7 +20183,7 @@
       <c r="R36" s="137"/>
     </row>
     <row r="37" spans="1:18">
-      <c r="A37" s="147" t="s">
+      <c r="A37" s="148" t="s">
         <v>263</v>
       </c>
       <c r="B37" s="8" t="s">
@@ -20209,7 +20215,7 @@
       <c r="R37" s="138"/>
     </row>
     <row r="38" spans="1:18">
-      <c r="A38" s="148"/>
+      <c r="A38" s="149"/>
       <c r="B38" s="12" t="s">
         <v>266</v>
       </c>
@@ -20239,7 +20245,7 @@
       <c r="R38" s="139"/>
     </row>
     <row r="39" spans="1:18">
-      <c r="A39" s="148"/>
+      <c r="A39" s="149"/>
       <c r="B39" s="12" t="s">
         <v>269</v>
       </c>
@@ -20273,7 +20279,7 @@
       <c r="R39" s="139"/>
     </row>
     <row r="40" spans="1:18">
-      <c r="A40" s="148"/>
+      <c r="A40" s="149"/>
       <c r="B40" s="12" t="s">
         <v>272</v>
       </c>
@@ -20307,7 +20313,7 @@
       <c r="R40" s="139"/>
     </row>
     <row r="41" spans="1:18">
-      <c r="A41" s="148"/>
+      <c r="A41" s="149"/>
       <c r="B41" s="12" t="s">
         <v>274</v>
       </c>
@@ -20339,7 +20345,7 @@
       <c r="R41" s="139"/>
     </row>
     <row r="42" spans="1:18">
-      <c r="A42" s="148"/>
+      <c r="A42" s="149"/>
       <c r="B42" s="12" t="s">
         <v>276</v>
       </c>
@@ -20369,7 +20375,7 @@
       <c r="R42" s="139"/>
     </row>
     <row r="43" spans="1:18">
-      <c r="A43" s="148"/>
+      <c r="A43" s="149"/>
       <c r="B43" s="12" t="s">
         <v>279</v>
       </c>
@@ -20403,7 +20409,7 @@
       <c r="R43" s="139"/>
     </row>
     <row r="44" spans="1:18">
-      <c r="A44" s="149"/>
+      <c r="A44" s="150"/>
       <c r="B44" s="58" t="s">
         <v>282</v>
       </c>
@@ -20437,7 +20443,7 @@
       <c r="R44" s="140"/>
     </row>
     <row r="45" spans="1:18">
-      <c r="A45" s="150" t="s">
+      <c r="A45" s="151" t="s">
         <v>284</v>
       </c>
       <c r="B45" s="8" t="s">
@@ -20485,7 +20491,7 @@
       <c r="R45" s="141"/>
     </row>
     <row r="46" spans="1:18">
-      <c r="A46" s="151"/>
+      <c r="A46" s="152"/>
       <c r="B46" s="58" t="s">
         <v>285</v>
       </c>

--- a/docs/timer/定时器整理.xlsx
+++ b/docs/timer/定时器整理.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\mogo_git\Mogo_Doc\docs\timer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Mogo_Doc\docs\timer\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,12 +17,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$R$46</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="296">
   <si>
     <t>定时器大类</t>
   </si>
@@ -178,9 +178,6 @@
     <t>2.1.1.6</t>
   </si>
   <si>
-    <t>LoanQuartz</t>
-  </si>
-  <si>
     <t>syncRepays</t>
   </si>
   <si>
@@ -264,9 +261,6 @@
   </si>
   <si>
     <t>逾期还款催款提醒</t>
-  </si>
-  <si>
-    <t>王翔毅</t>
   </si>
   <si>
     <t>杨斌</t>
@@ -770,9 +764,6 @@
     <t>同步房源显示价格</t>
   </si>
   <si>
-    <t>未使用</t>
-  </si>
-  <si>
     <t>RoomPriceTask</t>
   </si>
   <si>
@@ -1068,6 +1059,10 @@
       </rPr>
       <t>生成的，此定时器负责生成这些账单</t>
     </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoanQuartz</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -1416,7 +1411,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1842,6 +1837,9 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1878,6 +1876,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1895,6 +1896,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1914,7 +1983,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2164,10 +2233,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:XFD46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M13" workbookViewId="0">
-      <selection activeCell="S28" sqref="S28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2194,7 +2264,7 @@
     <col min="20" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" ht="27">
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="27.75" thickBot="1">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2253,11 +2323,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="2" customFormat="1">
-      <c r="A2" s="143" t="s">
+    <row r="2" spans="1:19" s="2" customFormat="1" ht="14.25" hidden="1" thickBot="1">
+      <c r="A2" s="144" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="153" t="s">
+      <c r="B2" s="154" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -2289,9 +2359,9 @@
       <c r="Q2" s="55"/>
       <c r="R2" s="55"/>
     </row>
-    <row r="3" spans="1:19" s="2" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A3" s="144"/>
-      <c r="B3" s="154"/>
+    <row r="3" spans="1:19" s="2" customFormat="1" ht="13.5" hidden="1" customHeight="1">
+      <c r="A3" s="145"/>
+      <c r="B3" s="155"/>
       <c r="C3" s="9" t="s">
         <v>27</v>
       </c>
@@ -2321,9 +2391,9 @@
       <c r="Q3" s="9"/>
       <c r="R3" s="9"/>
     </row>
-    <row r="4" spans="1:19" s="2" customFormat="1" ht="27">
-      <c r="A4" s="144"/>
-      <c r="B4" s="149" t="s">
+    <row r="4" spans="1:19" s="2" customFormat="1" ht="27.75" hidden="1" thickBot="1">
+      <c r="A4" s="145"/>
+      <c r="B4" s="150" t="s">
         <v>30</v>
       </c>
       <c r="C4" s="9" t="s">
@@ -2365,9 +2435,9 @@
       <c r="Q4" s="9"/>
       <c r="R4" s="9"/>
     </row>
-    <row r="5" spans="1:19" s="2" customFormat="1" ht="40.5">
-      <c r="A5" s="144"/>
-      <c r="B5" s="149"/>
+    <row r="5" spans="1:19" s="2" customFormat="1" ht="41.25" hidden="1" thickBot="1">
+      <c r="A5" s="145"/>
+      <c r="B5" s="150"/>
       <c r="C5" s="14" t="s">
         <v>40</v>
       </c>
@@ -2411,22 +2481,22 @@
         <v>50</v>
       </c>
       <c r="S5" s="126" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="27">
-      <c r="A6" s="144"/>
-      <c r="B6" s="149" t="s">
+    <row r="6" spans="1:19" ht="27.75" hidden="1" thickBot="1">
+      <c r="A6" s="145"/>
+      <c r="B6" s="156" t="s">
+        <v>295</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="D6" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="E6" s="18" t="s">
         <v>53</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>54</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="18" t="s">
@@ -2440,37 +2510,37 @@
         <v>35</v>
       </c>
       <c r="K6" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="L6" s="16" t="s">
+      <c r="M6" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="M6" s="16" t="s">
+      <c r="N6" s="73" t="s">
         <v>57</v>
-      </c>
-      <c r="N6" s="73" t="s">
-        <v>58</v>
       </c>
       <c r="O6" s="16" t="s">
         <v>2</v>
       </c>
       <c r="P6" s="74" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q6" s="17"/>
       <c r="R6" s="17"/>
     </row>
-    <row r="7" spans="1:19" s="2" customFormat="1">
-      <c r="A7" s="144"/>
-      <c r="B7" s="149"/>
+    <row r="7" spans="1:19" s="2" customFormat="1" ht="14.25" hidden="1" thickBot="1">
+      <c r="A7" s="145"/>
+      <c r="B7" s="150"/>
       <c r="C7" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="14" t="s">
-        <v>61</v>
-      </c>
       <c r="E7" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F7" s="19"/>
       <c r="G7" s="20" t="s">
@@ -2484,40 +2554,40 @@
         <v>35</v>
       </c>
       <c r="K7" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="L7" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="L7" s="19" t="s">
+      <c r="M7" s="19" t="s">
         <v>63</v>
-      </c>
-      <c r="M7" s="19" t="s">
-        <v>64</v>
       </c>
       <c r="N7" s="19"/>
       <c r="O7" s="19" t="s">
         <v>2</v>
       </c>
       <c r="P7" s="75" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q7" s="14"/>
       <c r="R7" s="14" t="s">
         <v>50</v>
       </c>
       <c r="S7" s="126" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
-      <c r="A8" s="144"/>
-      <c r="B8" s="149"/>
+    <row r="8" spans="1:19" ht="14.25" hidden="1" thickBot="1">
+      <c r="A8" s="145"/>
+      <c r="B8" s="150"/>
       <c r="C8" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>67</v>
-      </c>
       <c r="E8" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="11" t="s">
@@ -2529,7 +2599,7 @@
       </c>
       <c r="J8" s="11"/>
       <c r="K8" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
@@ -2539,17 +2609,17 @@
       <c r="Q8" s="9"/>
       <c r="R8" s="9"/>
     </row>
-    <row r="9" spans="1:19">
-      <c r="A9" s="144"/>
-      <c r="B9" s="149"/>
+    <row r="9" spans="1:19" ht="14.25" hidden="1" thickBot="1">
+      <c r="A9" s="145"/>
+      <c r="B9" s="150"/>
       <c r="C9" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>70</v>
-      </c>
       <c r="E9" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="11" t="s">
@@ -2561,7 +2631,7 @@
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
@@ -2571,17 +2641,17 @@
       <c r="Q9" s="9"/>
       <c r="R9" s="9"/>
     </row>
-    <row r="10" spans="1:19">
-      <c r="A10" s="144"/>
-      <c r="B10" s="149"/>
+    <row r="10" spans="1:19" ht="14.25" hidden="1" thickBot="1">
+      <c r="A10" s="145"/>
+      <c r="B10" s="150"/>
       <c r="C10" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="17" t="s">
-        <v>72</v>
-      </c>
       <c r="E10" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F10" s="17"/>
       <c r="G10" s="13" t="s">
@@ -2595,41 +2665,41 @@
         <v>35</v>
       </c>
       <c r="K10" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="L10" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="L10" s="16" t="s">
+      <c r="M10" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="M10" s="16" t="s">
+      <c r="N10" s="73" t="s">
         <v>75</v>
-      </c>
-      <c r="N10" s="73" t="s">
-        <v>76</v>
       </c>
       <c r="O10" s="16" t="s">
         <v>2</v>
       </c>
       <c r="P10" s="76" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q10" s="17"/>
       <c r="R10" s="17"/>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="144"/>
-      <c r="B11" s="149"/>
+      <c r="A11" s="145"/>
+      <c r="B11" s="150"/>
       <c r="C11" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="D11" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>80</v>
+      <c r="E11" s="143" t="s">
+        <v>285</v>
       </c>
       <c r="F11" s="17"/>
       <c r="G11" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H11" s="17"/>
       <c r="I11" s="72" t="s">
@@ -2639,37 +2709,37 @@
         <v>35</v>
       </c>
       <c r="K11" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="M11" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="L11" s="17" t="s">
+      <c r="N11" s="73" t="s">
         <v>83</v>
-      </c>
-      <c r="M11" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="N11" s="73" t="s">
-        <v>85</v>
       </c>
       <c r="O11" s="17" t="s">
         <v>2</v>
       </c>
       <c r="P11" s="74" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q11" s="17"/>
       <c r="R11" s="17"/>
     </row>
-    <row r="12" spans="1:19">
-      <c r="A12" s="144"/>
-      <c r="B12" s="149"/>
+    <row r="12" spans="1:19" hidden="1">
+      <c r="A12" s="145"/>
+      <c r="B12" s="150"/>
       <c r="C12" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>89</v>
       </c>
       <c r="F12" s="17"/>
       <c r="G12" s="13" t="s">
@@ -2683,34 +2753,34 @@
         <v>35</v>
       </c>
       <c r="K12" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="L12" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="M12" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="L12" s="16" t="s">
+      <c r="N12" s="73" t="s">
         <v>91</v>
-      </c>
-      <c r="M12" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="N12" s="73" t="s">
-        <v>93</v>
       </c>
       <c r="O12" s="16" t="s">
         <v>2</v>
       </c>
       <c r="P12" s="76" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="Q12" s="17"/>
       <c r="R12" s="17"/>
     </row>
-    <row r="13" spans="1:19">
-      <c r="A13" s="144"/>
-      <c r="B13" s="149"/>
+    <row r="13" spans="1:19" hidden="1">
+      <c r="A13" s="145"/>
+      <c r="B13" s="150"/>
       <c r="C13" s="17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>24</v>
@@ -2727,37 +2797,37 @@
         <v>35</v>
       </c>
       <c r="K13" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="L13" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="M13" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="L13" s="16" t="s">
+      <c r="N13" s="73" t="s">
         <v>98</v>
-      </c>
-      <c r="M13" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="N13" s="73" t="s">
-        <v>100</v>
       </c>
       <c r="O13" s="16" t="s">
         <v>2</v>
       </c>
       <c r="P13" s="76" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q13" s="17"/>
       <c r="R13" s="17"/>
     </row>
-    <row r="14" spans="1:19">
-      <c r="A14" s="144"/>
-      <c r="B14" s="149"/>
+    <row r="14" spans="1:19" hidden="1">
+      <c r="A14" s="145"/>
+      <c r="B14" s="150"/>
       <c r="C14" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="E14" s="12" t="s">
         <v>102</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>104</v>
       </c>
       <c r="F14" s="17"/>
       <c r="G14" s="13" t="s">
@@ -2771,45 +2841,45 @@
         <v>35</v>
       </c>
       <c r="K14" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="L14" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="M14" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="L14" s="16" t="s">
+      <c r="N14" s="73" t="s">
         <v>106</v>
-      </c>
-      <c r="M14" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="N14" s="73" t="s">
-        <v>108</v>
       </c>
       <c r="O14" s="16" t="s">
         <v>2</v>
       </c>
       <c r="P14" s="76" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="Q14" s="17"/>
       <c r="R14" s="17"/>
     </row>
-    <row r="15" spans="1:19" ht="33">
-      <c r="A15" s="145"/>
-      <c r="B15" s="149" t="s">
+    <row r="15" spans="1:19" ht="33" hidden="1">
+      <c r="A15" s="146"/>
+      <c r="B15" s="150" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="E15" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="F15" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="G15" s="18" t="s">
         <v>112</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>114</v>
       </c>
       <c r="H15" s="16"/>
       <c r="I15" s="72" t="s">
@@ -2819,48 +2889,48 @@
         <v>35</v>
       </c>
       <c r="K15" s="142" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="L15" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="M15" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="N15" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="M15" s="16" t="s">
+      <c r="O15" s="77" t="s">
         <v>116</v>
       </c>
-      <c r="N15" s="16" t="s">
+      <c r="P15" s="78" t="s">
         <v>117</v>
       </c>
-      <c r="O15" s="77" t="s">
+      <c r="Q15" s="17" t="s">
         <v>118</v>
-      </c>
-      <c r="P15" s="78" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q15" s="17" t="s">
-        <v>120</v>
       </c>
       <c r="R15" s="125"/>
       <c r="S15" s="126" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" s="3" customFormat="1" ht="40.5" hidden="1">
+      <c r="A16" s="146"/>
+      <c r="B16" s="150"/>
+      <c r="C16" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16" s="24" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" s="3" customFormat="1" ht="40.5">
-      <c r="A16" s="145"/>
-      <c r="B16" s="149"/>
-      <c r="C16" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>123</v>
-      </c>
       <c r="E16" s="25" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H16" s="26"/>
       <c r="I16" s="79" t="s">
@@ -2870,48 +2940,48 @@
         <v>35</v>
       </c>
       <c r="K16" s="80" t="s">
+        <v>122</v>
+      </c>
+      <c r="L16" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="M16" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="L16" s="26" t="s">
+      <c r="N16" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="M16" s="26" t="s">
+      <c r="O16" s="81" t="s">
+        <v>116</v>
+      </c>
+      <c r="P16" s="82" t="s">
         <v>126</v>
       </c>
-      <c r="N16" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="O16" s="81" t="s">
+      <c r="Q16" s="93" t="s">
         <v>118</v>
-      </c>
-      <c r="P16" s="82" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q16" s="93" t="s">
-        <v>120</v>
       </c>
       <c r="R16" s="127"/>
       <c r="S16" s="128" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16384" ht="28.5" hidden="1">
+      <c r="A17" s="146"/>
+      <c r="B17" s="150"/>
+      <c r="C17" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="D17" s="28" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="17" spans="1:16384" ht="28.5">
-      <c r="A17" s="145"/>
-      <c r="B17" s="149"/>
-      <c r="C17" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>131</v>
-      </c>
       <c r="E17" s="29" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F17" s="29" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G17" s="29" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H17" s="30"/>
       <c r="I17" s="11" t="s">
@@ -2921,43 +2991,43 @@
         <v>35</v>
       </c>
       <c r="K17" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="L17" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="M17" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="L17" s="27" t="s">
+      <c r="N17" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="M17" s="30" t="s">
+      <c r="O17" s="83" t="s">
+        <v>116</v>
+      </c>
+      <c r="P17" s="84" t="s">
         <v>134</v>
-      </c>
-      <c r="N17" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="O17" s="83" t="s">
-        <v>118</v>
-      </c>
-      <c r="P17" s="84" t="s">
-        <v>136</v>
       </c>
       <c r="Q17" s="9"/>
       <c r="R17" s="9"/>
     </row>
-    <row r="18" spans="1:16384" s="2" customFormat="1" ht="40.5">
-      <c r="A18" s="145"/>
-      <c r="B18" s="149"/>
+    <row r="18" spans="1:16384" s="2" customFormat="1" ht="40.5" hidden="1">
+      <c r="A18" s="146"/>
+      <c r="B18" s="150"/>
       <c r="C18" s="19" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="70" t="s">
@@ -2967,50 +3037,50 @@
         <v>35</v>
       </c>
       <c r="K18" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="L18" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="M18" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="L18" s="32" t="s">
+      <c r="N18" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="M18" s="19" t="s">
+      <c r="O18" s="85" t="s">
+        <v>116</v>
+      </c>
+      <c r="P18" s="86" t="s">
         <v>141</v>
       </c>
-      <c r="N18" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="O18" s="85" t="s">
+      <c r="Q18" s="14" t="s">
         <v>118</v>
-      </c>
-      <c r="P18" s="86" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q18" s="14" t="s">
-        <v>120</v>
       </c>
       <c r="R18" s="129" t="s">
         <v>50</v>
       </c>
       <c r="S18" s="130" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:16384" s="2" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A19" s="145"/>
-      <c r="B19" s="149"/>
+    <row r="19" spans="1:16384" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1">
+      <c r="A19" s="146"/>
+      <c r="B19" s="150"/>
       <c r="C19" s="19" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="70" t="s">
@@ -3020,50 +3090,50 @@
         <v>35</v>
       </c>
       <c r="K19" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="L19" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="M19" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="L19" s="19" t="s">
+      <c r="N19" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="M19" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="N19" s="19" t="s">
-        <v>149</v>
-      </c>
       <c r="O19" s="85" t="s">
+        <v>116</v>
+      </c>
+      <c r="P19" s="86" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q19" s="14" t="s">
         <v>118</v>
-      </c>
-      <c r="P19" s="86" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q19" s="14" t="s">
-        <v>120</v>
       </c>
       <c r="R19" s="129" t="s">
         <v>50</v>
       </c>
       <c r="S19" s="130" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16384" s="2" customFormat="1" ht="33" hidden="1">
+      <c r="A20" s="147"/>
+      <c r="B20" s="157"/>
+      <c r="C20" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="D20" s="28" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="20" spans="1:16384" s="2" customFormat="1" ht="33">
-      <c r="A20" s="146"/>
-      <c r="B20" s="155"/>
-      <c r="C20" s="30" t="s">
-        <v>151</v>
-      </c>
-      <c r="D20" s="28" t="s">
-        <v>152</v>
-      </c>
       <c r="E20" s="29" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F20" s="29" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G20" s="29" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H20" s="30"/>
       <c r="I20" s="87" t="s">
@@ -3073,47 +3143,47 @@
         <v>26</v>
       </c>
       <c r="K20" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="L20" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="M20" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="L20" s="27" t="s">
+      <c r="N20" s="30" t="s">
         <v>154</v>
       </c>
-      <c r="M20" s="30" t="s">
+      <c r="O20" s="83" t="s">
+        <v>116</v>
+      </c>
+      <c r="P20" s="84" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q20" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="R20" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="N20" s="30" t="s">
+    </row>
+    <row r="21" spans="1:16384" s="2" customFormat="1" ht="27" hidden="1">
+      <c r="A21" s="148"/>
+      <c r="B21" s="158"/>
+      <c r="C21" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="O20" s="83" t="s">
-        <v>118</v>
-      </c>
-      <c r="P20" s="84" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q20" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="R20" s="10" t="s">
+      <c r="D21" s="31" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="21" spans="1:16384" s="2" customFormat="1" ht="27">
-      <c r="A21" s="147"/>
-      <c r="B21" s="156"/>
-      <c r="C21" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="D21" s="31" t="s">
-        <v>159</v>
-      </c>
       <c r="E21" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G21" s="33" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="89" t="s">
@@ -3123,50 +3193,50 @@
         <v>35</v>
       </c>
       <c r="K21" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="L21" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="M21" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="L21" s="32" t="s">
+      <c r="N21" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="M21" s="32" t="s">
+      <c r="O21" s="90" t="s">
+        <v>116</v>
+      </c>
+      <c r="P21" s="91" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q21" s="131" t="s">
+        <v>118</v>
+      </c>
+      <c r="R21" s="132" t="s">
+        <v>155</v>
+      </c>
+      <c r="S21" s="130" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16384" s="2" customFormat="1" ht="57" hidden="1" customHeight="1">
+      <c r="A22" s="146"/>
+      <c r="B22" s="159"/>
+      <c r="C22" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="N21" s="19" t="s">
+      <c r="D22" s="28" t="s">
         <v>163</v>
       </c>
-      <c r="O21" s="90" t="s">
-        <v>118</v>
-      </c>
-      <c r="P21" s="91" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q21" s="131" t="s">
-        <v>120</v>
-      </c>
-      <c r="R21" s="132" t="s">
-        <v>157</v>
-      </c>
-      <c r="S21" s="130" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16384" s="2" customFormat="1" ht="57" customHeight="1">
-      <c r="A22" s="145"/>
-      <c r="B22" s="157"/>
-      <c r="C22" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="D22" s="28" t="s">
-        <v>165</v>
-      </c>
       <c r="E22" s="29" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F22" s="29" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G22" s="29" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H22" s="30"/>
       <c r="I22" s="87" t="s">
@@ -3176,25 +3246,25 @@
         <v>35</v>
       </c>
       <c r="K22" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="L22" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="M22" s="30" t="s">
         <v>166</v>
       </c>
-      <c r="L22" s="27" t="s">
+      <c r="N22" s="30" t="s">
         <v>167</v>
       </c>
-      <c r="M22" s="30" t="s">
+      <c r="O22" s="83" t="s">
+        <v>116</v>
+      </c>
+      <c r="P22" s="84" t="s">
         <v>168</v>
       </c>
-      <c r="N22" s="30" t="s">
-        <v>169</v>
-      </c>
-      <c r="O22" s="83" t="s">
+      <c r="Q22" s="10" t="s">
         <v>118</v>
-      </c>
-      <c r="P22" s="84" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q22" s="10" t="s">
-        <v>120</v>
       </c>
       <c r="R22" s="10"/>
       <c r="S22" s="133"/>
@@ -19564,23 +19634,23 @@
       <c r="XFC22" s="133"/>
       <c r="XFD22" s="133"/>
     </row>
-    <row r="23" spans="1:16384" ht="45" customHeight="1">
-      <c r="A23" s="145"/>
-      <c r="B23" s="149"/>
+    <row r="23" spans="1:16384" ht="45" hidden="1" customHeight="1">
+      <c r="A23" s="146"/>
+      <c r="B23" s="150"/>
       <c r="C23" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="E23" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="D23" s="35" t="s">
-        <v>172</v>
-      </c>
-      <c r="E23" s="36" t="s">
-        <v>173</v>
-      </c>
       <c r="F23" s="36" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G23" s="36" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H23" s="26"/>
       <c r="I23" s="92" t="s">
@@ -19590,48 +19660,48 @@
         <v>35</v>
       </c>
       <c r="K23" s="93" t="s">
+        <v>172</v>
+      </c>
+      <c r="L23" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="M23" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="N23" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="L23" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="M23" s="34" t="s">
+      <c r="O23" s="94" t="s">
+        <v>116</v>
+      </c>
+      <c r="P23" s="95" t="s">
         <v>175</v>
       </c>
-      <c r="N23" s="34" t="s">
+      <c r="Q23" s="93" t="s">
+        <v>118</v>
+      </c>
+      <c r="R23" s="93" t="s">
         <v>176</v>
       </c>
-      <c r="O23" s="94" t="s">
-        <v>118</v>
-      </c>
-      <c r="P23" s="95" t="s">
+      <c r="S23" s="134" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16384" ht="13.5" hidden="1" customHeight="1">
+      <c r="A24" s="145"/>
+      <c r="B24" s="150" t="s">
         <v>177</v>
       </c>
-      <c r="Q23" s="93" t="s">
-        <v>120</v>
-      </c>
-      <c r="R23" s="93" t="s">
+      <c r="C24" s="9" t="s">
         <v>178</v>
-      </c>
-      <c r="S23" s="134" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16384" ht="13.5" customHeight="1">
-      <c r="A24" s="144"/>
-      <c r="B24" s="149" t="s">
-        <v>179</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>180</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="11" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H24" s="9"/>
       <c r="I24" s="11" t="s">
@@ -19639,7 +19709,7 @@
       </c>
       <c r="J24" s="11"/>
       <c r="K24" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
@@ -19647,23 +19717,23 @@
       <c r="O24" s="9"/>
       <c r="P24" s="68"/>
       <c r="Q24" s="9" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="R24" s="9"/>
     </row>
-    <row r="25" spans="1:16384">
-      <c r="A25" s="144"/>
-      <c r="B25" s="149"/>
+    <row r="25" spans="1:16384" hidden="1">
+      <c r="A25" s="145"/>
+      <c r="B25" s="150"/>
       <c r="C25" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="11" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H25" s="9"/>
       <c r="I25" s="11" t="s">
@@ -19671,7 +19741,7 @@
       </c>
       <c r="J25" s="11"/>
       <c r="K25" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
@@ -19681,19 +19751,19 @@
       <c r="Q25" s="9"/>
       <c r="R25" s="9"/>
     </row>
-    <row r="26" spans="1:16384">
-      <c r="A26" s="144"/>
+    <row r="26" spans="1:16384" hidden="1">
+      <c r="A26" s="145"/>
       <c r="B26" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="D26" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="E26" s="37" t="s">
         <v>186</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="E26" s="37" t="s">
-        <v>188</v>
       </c>
       <c r="F26" s="16"/>
       <c r="G26" s="18" t="s">
@@ -19707,43 +19777,43 @@
         <v>35</v>
       </c>
       <c r="K26" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="L26" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="M26" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="L26" s="16" t="s">
+      <c r="N26" s="73" t="s">
         <v>190</v>
-      </c>
-      <c r="M26" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="N26" s="73" t="s">
-        <v>192</v>
       </c>
       <c r="O26" s="16" t="s">
         <v>2</v>
       </c>
       <c r="P26" s="76" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="Q26" s="17"/>
       <c r="R26" s="17"/>
     </row>
     <row r="27" spans="1:16384" s="2" customFormat="1">
-      <c r="A27" s="144"/>
+      <c r="A27" s="145"/>
       <c r="B27" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="D27" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="E27" s="15" t="s">
         <v>195</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>197</v>
       </c>
       <c r="F27" s="14"/>
       <c r="G27" s="15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H27" s="14"/>
       <c r="I27" s="70" t="s">
@@ -19753,45 +19823,45 @@
         <v>35</v>
       </c>
       <c r="K27" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="L27" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="L27" s="14" t="s">
+      <c r="M27" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="N27" s="32" t="s">
         <v>198</v>
-      </c>
-      <c r="M27" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="N27" s="32" t="s">
-        <v>200</v>
       </c>
       <c r="O27" s="14" t="s">
         <v>2</v>
       </c>
       <c r="P27" s="71" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="Q27" s="14"/>
       <c r="R27" s="14" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="28" spans="1:16384" s="2" customFormat="1">
-      <c r="A28" s="144"/>
+      <c r="A28" s="145"/>
       <c r="B28" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="D28" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="C28" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>204</v>
-      </c>
       <c r="E28" s="15" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F28" s="14"/>
       <c r="G28" s="15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H28" s="14"/>
       <c r="I28" s="70" t="s">
@@ -19801,45 +19871,45 @@
         <v>35</v>
       </c>
       <c r="K28" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="L28" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="M28" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="L28" s="14" t="s">
+      <c r="N28" s="32" t="s">
         <v>205</v>
-      </c>
-      <c r="M28" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="N28" s="32" t="s">
-        <v>207</v>
       </c>
       <c r="O28" s="14" t="s">
         <v>2</v>
       </c>
       <c r="P28" s="71" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="Q28" s="14"/>
       <c r="R28" s="14" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:16384" s="2" customFormat="1">
-      <c r="A29" s="144"/>
+      <c r="A29" s="145"/>
       <c r="B29" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="D29" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="C29" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>211</v>
-      </c>
       <c r="E29" s="15" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F29" s="14"/>
       <c r="G29" s="15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H29" s="14"/>
       <c r="I29" s="70" t="s">
@@ -19849,45 +19919,45 @@
         <v>35</v>
       </c>
       <c r="K29" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="L29" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="M29" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="L29" s="14" t="s">
+      <c r="N29" s="32" t="s">
         <v>212</v>
-      </c>
-      <c r="M29" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="N29" s="32" t="s">
-        <v>214</v>
       </c>
       <c r="O29" s="14" t="s">
         <v>2</v>
       </c>
       <c r="P29" s="71" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="Q29" s="14"/>
       <c r="R29" s="14" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:16384" s="2" customFormat="1">
-      <c r="A30" s="144"/>
+      <c r="A30" s="145"/>
       <c r="B30" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="D30" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="C30" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>218</v>
-      </c>
       <c r="E30" s="15" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F30" s="14"/>
       <c r="G30" s="15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H30" s="14"/>
       <c r="I30" s="70" t="s">
@@ -19897,91 +19967,91 @@
         <v>35</v>
       </c>
       <c r="K30" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="L30" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="M30" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="L30" s="14" t="s">
+      <c r="N30" s="32" t="s">
         <v>219</v>
-      </c>
-      <c r="M30" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="N30" s="32" t="s">
-        <v>221</v>
       </c>
       <c r="O30" s="14"/>
       <c r="P30" s="71"/>
       <c r="Q30" s="14"/>
       <c r="R30" s="14" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
-    <row r="31" spans="1:16384" s="2" customFormat="1" ht="16.5">
-      <c r="A31" s="144"/>
+    <row r="31" spans="1:16384" s="2" customFormat="1" ht="17.25" thickBot="1">
+      <c r="A31" s="145"/>
       <c r="B31" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="C31" s="39" t="s">
+        <v>221</v>
+      </c>
+      <c r="D31" s="40" t="s">
         <v>222</v>
       </c>
-      <c r="C31" s="39" t="s">
-        <v>223</v>
-      </c>
-      <c r="D31" s="40" t="s">
-        <v>224</v>
-      </c>
       <c r="E31" s="41" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F31" s="41"/>
       <c r="G31" s="42" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H31" s="43"/>
       <c r="I31" s="70" t="s">
-        <v>225</v>
+        <v>44</v>
       </c>
       <c r="J31" s="42" t="s">
         <v>35</v>
       </c>
       <c r="K31" s="96" t="s">
+        <v>222</v>
+      </c>
+      <c r="L31" s="97" t="s">
+        <v>223</v>
+      </c>
+      <c r="M31" s="98" t="s">
         <v>224</v>
       </c>
-      <c r="L31" s="97" t="s">
-        <v>226</v>
-      </c>
-      <c r="M31" s="98" t="s">
-        <v>227</v>
-      </c>
       <c r="N31" s="99" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="O31" s="100" t="s">
         <v>2</v>
       </c>
       <c r="P31" s="101" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="Q31" s="14"/>
       <c r="R31" s="14" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
-    <row r="32" spans="1:16384" s="2" customFormat="1" ht="63" customHeight="1">
-      <c r="A32" s="145"/>
+    <row r="32" spans="1:16384" s="2" customFormat="1" ht="63" hidden="1" customHeight="1">
+      <c r="A32" s="146"/>
       <c r="B32" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="C32" s="44" t="s">
+        <v>228</v>
+      </c>
+      <c r="D32" s="45" t="s">
+        <v>229</v>
+      </c>
+      <c r="E32" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="C32" s="44" t="s">
-        <v>231</v>
-      </c>
-      <c r="D32" s="45" t="s">
-        <v>232</v>
-      </c>
-      <c r="E32" s="38" t="s">
-        <v>233</v>
-      </c>
       <c r="F32" s="38" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G32" s="46" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H32" s="47"/>
       <c r="I32" s="102" t="s">
@@ -19991,44 +20061,44 @@
         <v>35</v>
       </c>
       <c r="K32" s="103" t="s">
+        <v>231</v>
+      </c>
+      <c r="L32" s="104" t="s">
+        <v>232</v>
+      </c>
+      <c r="M32" s="105" t="s">
+        <v>233</v>
+      </c>
+      <c r="N32" s="106" t="s">
         <v>234</v>
       </c>
-      <c r="L32" s="104" t="s">
+      <c r="O32" s="107" t="s">
+        <v>116</v>
+      </c>
+      <c r="P32" s="108" t="s">
         <v>235</v>
       </c>
-      <c r="M32" s="105" t="s">
-        <v>236</v>
-      </c>
-      <c r="N32" s="106" t="s">
-        <v>237</v>
-      </c>
-      <c r="O32" s="107" t="s">
-        <v>118</v>
-      </c>
-      <c r="P32" s="108" t="s">
-        <v>238</v>
-      </c>
       <c r="Q32" s="21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="R32" s="135"/>
       <c r="S32" s="130" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
-    <row r="33" spans="1:18">
-      <c r="A33" s="144"/>
+    <row r="33" spans="1:18" ht="14.25" hidden="1" thickBot="1">
+      <c r="A33" s="145"/>
       <c r="B33" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="E33" s="13" t="s">
         <v>239</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>240</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>242</v>
       </c>
       <c r="F33" s="17"/>
       <c r="G33" s="13" t="s">
@@ -20042,39 +20112,39 @@
         <v>35</v>
       </c>
       <c r="K33" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="L33" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="M33" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="N33" s="73" t="s">
+        <v>242</v>
+      </c>
+      <c r="O33" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="P33" s="74" t="s">
         <v>243</v>
-      </c>
-      <c r="L33" s="17" t="s">
-        <v>239</v>
-      </c>
-      <c r="M33" s="17" t="s">
-        <v>244</v>
-      </c>
-      <c r="N33" s="73" t="s">
-        <v>245</v>
-      </c>
-      <c r="O33" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="P33" s="74" t="s">
-        <v>246</v>
       </c>
       <c r="Q33" s="17"/>
       <c r="R33" s="17"/>
     </row>
-    <row r="34" spans="1:18">
-      <c r="A34" s="144"/>
+    <row r="34" spans="1:18" ht="14.25" hidden="1" thickBot="1">
+      <c r="A34" s="145"/>
       <c r="B34" s="13" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F34" s="17"/>
       <c r="G34" s="13" t="s">
@@ -20088,7 +20158,7 @@
         <v>35</v>
       </c>
       <c r="K34" s="17" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="L34" s="17"/>
       <c r="M34" s="17"/>
@@ -20098,19 +20168,19 @@
       <c r="Q34" s="17"/>
       <c r="R34" s="17"/>
     </row>
-    <row r="35" spans="1:18" ht="27">
-      <c r="A35" s="144"/>
+    <row r="35" spans="1:18" ht="27.75" hidden="1" thickBot="1">
+      <c r="A35" s="145"/>
       <c r="B35" s="48" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C35" s="49" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D35" s="49" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E35" s="48" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F35" s="49"/>
       <c r="G35" s="48" t="s">
@@ -20124,41 +20194,41 @@
         <v>35</v>
       </c>
       <c r="K35" s="49" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="L35" s="49" t="s">
+        <v>251</v>
+      </c>
+      <c r="M35" s="49" t="s">
+        <v>252</v>
+      </c>
+      <c r="N35" s="111" t="s">
+        <v>253</v>
+      </c>
+      <c r="O35" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="P35" s="112" t="s">
         <v>254</v>
-      </c>
-      <c r="M35" s="49" t="s">
-        <v>255</v>
-      </c>
-      <c r="N35" s="111" t="s">
-        <v>256</v>
-      </c>
-      <c r="O35" s="49" t="s">
-        <v>118</v>
-      </c>
-      <c r="P35" s="112" t="s">
-        <v>257</v>
       </c>
       <c r="Q35" s="136"/>
       <c r="R35" s="136"/>
     </row>
-    <row r="36" spans="1:18" ht="27">
+    <row r="36" spans="1:18" ht="27.75" hidden="1" thickBot="1">
       <c r="A36" s="50" t="s">
+        <v>255</v>
+      </c>
+      <c r="B36" s="51" t="s">
+        <v>256</v>
+      </c>
+      <c r="C36" s="52" t="s">
+        <v>257</v>
+      </c>
+      <c r="D36" s="53" t="s">
         <v>258</v>
       </c>
-      <c r="B36" s="51" t="s">
-        <v>259</v>
-      </c>
-      <c r="C36" s="52" t="s">
-        <v>260</v>
-      </c>
-      <c r="D36" s="53" t="s">
-        <v>261</v>
-      </c>
       <c r="E36" s="54" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F36" s="52"/>
       <c r="G36" s="54" t="s">
@@ -20172,7 +20242,7 @@
         <v>26</v>
       </c>
       <c r="K36" s="52" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="L36" s="52"/>
       <c r="M36" s="52"/>
@@ -20182,19 +20252,19 @@
       <c r="Q36" s="113"/>
       <c r="R36" s="137"/>
     </row>
-    <row r="37" spans="1:18">
-      <c r="A37" s="148" t="s">
-        <v>263</v>
+    <row r="37" spans="1:18" ht="14.25" hidden="1" thickBot="1">
+      <c r="A37" s="149" t="s">
+        <v>260</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C37" s="55"/>
       <c r="D37" s="56" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E37" s="57" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F37" s="55"/>
       <c r="G37" s="57" t="s">
@@ -20214,19 +20284,19 @@
       <c r="Q37" s="114"/>
       <c r="R37" s="138"/>
     </row>
-    <row r="38" spans="1:18">
-      <c r="A38" s="149"/>
+    <row r="38" spans="1:18" ht="14.25" hidden="1" thickBot="1">
+      <c r="A38" s="150"/>
       <c r="B38" s="12" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="10"/>
       <c r="E38" s="11" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F38" s="9"/>
       <c r="G38" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H38" s="9"/>
       <c r="I38" s="11" t="s">
@@ -20234,7 +20304,7 @@
       </c>
       <c r="J38" s="11"/>
       <c r="K38" s="9" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="L38" s="9"/>
       <c r="M38" s="9"/>
@@ -20244,17 +20314,17 @@
       <c r="Q38" s="68"/>
       <c r="R38" s="139"/>
     </row>
-    <row r="39" spans="1:18">
-      <c r="A39" s="149"/>
+    <row r="39" spans="1:18" ht="14.25" hidden="1" thickBot="1">
+      <c r="A39" s="150"/>
       <c r="B39" s="12" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C39" s="9"/>
       <c r="D39" s="10" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F39" s="9"/>
       <c r="G39" s="11" t="s">
@@ -20262,13 +20332,13 @@
       </c>
       <c r="H39" s="9"/>
       <c r="I39" s="11" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="J39" s="11" t="s">
         <v>26</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="L39" s="9"/>
       <c r="M39" s="9"/>
@@ -20278,17 +20348,17 @@
       <c r="Q39" s="68"/>
       <c r="R39" s="139"/>
     </row>
-    <row r="40" spans="1:18">
-      <c r="A40" s="149"/>
+    <row r="40" spans="1:18" ht="14.25" hidden="1" thickBot="1">
+      <c r="A40" s="150"/>
       <c r="B40" s="12" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="10" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F40" s="9"/>
       <c r="G40" s="11" t="s">
@@ -20296,13 +20366,13 @@
       </c>
       <c r="H40" s="9"/>
       <c r="I40" s="11" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="J40" s="11" t="s">
         <v>26</v>
       </c>
       <c r="K40" s="9" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="L40" s="9"/>
       <c r="M40" s="9"/>
@@ -20312,17 +20382,17 @@
       <c r="Q40" s="68"/>
       <c r="R40" s="139"/>
     </row>
-    <row r="41" spans="1:18">
-      <c r="A41" s="149"/>
+    <row r="41" spans="1:18" ht="14.25" hidden="1" thickBot="1">
+      <c r="A41" s="150"/>
       <c r="B41" s="12" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="10" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F41" s="9"/>
       <c r="G41" s="11" t="s">
@@ -20334,7 +20404,7 @@
       </c>
       <c r="J41" s="11"/>
       <c r="K41" s="9" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="L41" s="9"/>
       <c r="M41" s="9"/>
@@ -20344,19 +20414,19 @@
       <c r="Q41" s="68"/>
       <c r="R41" s="139"/>
     </row>
-    <row r="42" spans="1:18">
-      <c r="A42" s="149"/>
+    <row r="42" spans="1:18" ht="14.25" hidden="1" thickBot="1">
+      <c r="A42" s="150"/>
       <c r="B42" s="12" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
       <c r="E42" s="11" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F42" s="9"/>
       <c r="G42" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H42" s="9"/>
       <c r="I42" s="11" t="s">
@@ -20364,7 +20434,7 @@
       </c>
       <c r="J42" s="11"/>
       <c r="K42" s="9" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="L42" s="9"/>
       <c r="M42" s="9"/>
@@ -20374,17 +20444,17 @@
       <c r="Q42" s="68"/>
       <c r="R42" s="139"/>
     </row>
-    <row r="43" spans="1:18">
-      <c r="A43" s="149"/>
+    <row r="43" spans="1:18" ht="14.25" hidden="1" thickBot="1">
+      <c r="A43" s="150"/>
       <c r="B43" s="12" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="10" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F43" s="9"/>
       <c r="G43" s="11" t="s">
@@ -20398,7 +20468,7 @@
         <v>26</v>
       </c>
       <c r="K43" s="9" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="L43" s="9"/>
       <c r="M43" s="9"/>
@@ -20408,14 +20478,14 @@
       <c r="Q43" s="68"/>
       <c r="R43" s="139"/>
     </row>
-    <row r="44" spans="1:18">
-      <c r="A44" s="150"/>
+    <row r="44" spans="1:18" ht="14.25" hidden="1" thickBot="1">
+      <c r="A44" s="151"/>
       <c r="B44" s="58" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C44" s="59"/>
       <c r="D44" s="60" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E44" s="61" t="s">
         <v>23</v>
@@ -20426,13 +20496,13 @@
       </c>
       <c r="H44" s="59"/>
       <c r="I44" s="61" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="J44" s="61" t="s">
         <v>26</v>
       </c>
       <c r="K44" s="59" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="L44" s="59"/>
       <c r="M44" s="59"/>
@@ -20443,24 +20513,24 @@
       <c r="R44" s="140"/>
     </row>
     <row r="45" spans="1:18">
-      <c r="A45" s="151" t="s">
+      <c r="A45" s="152" t="s">
+        <v>281</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="C45" s="63" t="s">
+        <v>283</v>
+      </c>
+      <c r="D45" s="63" t="s">
         <v>284</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="E45" s="62" t="s">
         <v>285</v>
-      </c>
-      <c r="C45" s="63" t="s">
-        <v>286</v>
-      </c>
-      <c r="D45" s="63" t="s">
-        <v>287</v>
-      </c>
-      <c r="E45" s="62" t="s">
-        <v>288</v>
       </c>
       <c r="F45" s="63"/>
       <c r="G45" s="62" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H45" s="63"/>
       <c r="I45" s="116" t="s">
@@ -20470,43 +20540,43 @@
         <v>35</v>
       </c>
       <c r="K45" s="63" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L45" s="63" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="M45" s="63" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="N45" s="117" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="O45" s="63" t="s">
         <v>2</v>
       </c>
       <c r="P45" s="118" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q45" s="141"/>
       <c r="R45" s="141"/>
     </row>
-    <row r="46" spans="1:18">
-      <c r="A46" s="152"/>
+    <row r="46" spans="1:18" ht="14.25" thickBot="1">
+      <c r="A46" s="153"/>
       <c r="B46" s="58" t="s">
+        <v>282</v>
+      </c>
+      <c r="C46" s="65" t="s">
+        <v>289</v>
+      </c>
+      <c r="D46" s="65" t="s">
+        <v>290</v>
+      </c>
+      <c r="E46" s="64" t="s">
         <v>285</v>
-      </c>
-      <c r="C46" s="65" t="s">
-        <v>292</v>
-      </c>
-      <c r="D46" s="65" t="s">
-        <v>293</v>
-      </c>
-      <c r="E46" s="64" t="s">
-        <v>288</v>
       </c>
       <c r="F46" s="65"/>
       <c r="G46" s="64" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H46" s="65"/>
       <c r="I46" s="119" t="s">
@@ -20516,28 +20586,35 @@
         <v>35</v>
       </c>
       <c r="K46" s="65" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L46" s="65" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="M46" s="65" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="N46" s="120" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="O46" s="65" t="s">
         <v>2</v>
       </c>
       <c r="P46" s="121" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q46" s="136"/>
       <c r="R46" s="136"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R46"/>
+  <autoFilter ref="A1:R46">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="雷传盛"/>
+        <filter val="王祥毅"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="8">
     <mergeCell ref="A2:A35"/>
     <mergeCell ref="A37:A44"/>

--- a/docs/timer/定时器整理.xlsx
+++ b/docs/timer/定时器整理.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="297">
   <si>
     <t>定时器大类</t>
   </si>
@@ -480,6 +480,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>L</t>
@@ -489,6 +490,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>TS</t>
@@ -506,6 +508,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>白天工作时间段，当租客成功付款预定成功后,如果职业房东在</t>
@@ -515,6 +518,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一个小时</t>
@@ -524,6 +528,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>内未审核该预订单,
@@ -560,6 +565,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>com.mogoroom.tasktracker.task.</t>
@@ -569,6 +575,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>HandDepositNotPaidBookOrderTask</t>
@@ -772,6 +779,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>com.mogoroom.tasktracker.task</t>
@@ -781,6 +789,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>.RoomPriceTask</t>
@@ -795,6 +804,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>每天0</t>
@@ -804,6 +814,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>3:00:00执行</t>
@@ -848,6 +859,7 @@
         <sz val="11"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>API</t>
@@ -857,6 +869,7 @@
         <sz val="11"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -866,6 +879,7 @@
         <sz val="11"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>接口签名 密码 定时修改</t>
@@ -1045,6 +1059,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>15天</t>
@@ -1065,12 +1080,35 @@
     <t>LoanQuartz</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>每天23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:30:00执行</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1083,6 +1121,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1090,6 +1129,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="major"/>
     </font>
@@ -1097,6 +1137,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1104,6 +1145,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="major"/>
     </font>
@@ -1111,11 +1153,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1123,6 +1167,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="major"/>
     </font>
@@ -1130,12 +1175,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="major"/>
     </font>
@@ -1143,32 +1190,29 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1411,7 +1455,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1834,7 +1878,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1887,6 +1931,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2236,8 +2283,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:XFD46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Q54" sqref="Q54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -19941,7 +19988,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="30" spans="1:16384" s="2" customFormat="1">
+    <row r="30" spans="1:16384" s="2" customFormat="1" ht="14.25">
       <c r="A30" s="145"/>
       <c r="B30" s="12" t="s">
         <v>214</v>
@@ -19978,8 +20025,12 @@
       <c r="N30" s="32" t="s">
         <v>219</v>
       </c>
-      <c r="O30" s="14"/>
-      <c r="P30" s="71"/>
+      <c r="O30" s="100" t="s">
+        <v>2</v>
+      </c>
+      <c r="P30" s="101" t="s">
+        <v>226</v>
+      </c>
       <c r="Q30" s="14"/>
       <c r="R30" s="14" t="s">
         <v>155</v>
@@ -20025,8 +20076,8 @@
       <c r="O31" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="P31" s="101" t="s">
-        <v>226</v>
+      <c r="P31" s="160" t="s">
+        <v>296</v>
       </c>
       <c r="Q31" s="14"/>
       <c r="R31" s="14" t="s">
